--- a/DFs-MRV-Limpo.xlsx
+++ b/DFs-MRV-Limpo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\7Periodo\Fin_I\APS1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\INSPER\Engenharia\7-Semestre\Financas-I\APS\Analise-MRV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B6A1AD-296A-480C-B014-FAC5CA883395}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E524B2AE-8DC4-4FA2-938A-BA545037AACD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{4AED71FF-91D9-491B-A893-2F3A98F1C88C}"/>
+    <workbookView xWindow="1830" yWindow="1830" windowWidth="17280" windowHeight="8994" activeTab="1" xr2:uid="{4AED71FF-91D9-491B-A893-2F3A98F1C88C}"/>
   </bookViews>
   <sheets>
     <sheet name="BP" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
   <si>
     <t>MRV ON (R$ em milhares)</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Ativo Circulante</t>
   </si>
   <si>
-    <t>Estoques</t>
-  </si>
-  <si>
     <t>Impostos a Recuperar</t>
   </si>
   <si>
@@ -65,24 +62,12 @@
     <t>Ativo Não Circulante</t>
   </si>
   <si>
-    <t>Despesas Antecipadas</t>
-  </si>
-  <si>
-    <t>Contas a Receber</t>
-  </si>
-  <si>
     <t>A Receber de Partes Relacionadas</t>
   </si>
   <si>
     <t>Intangível</t>
   </si>
   <si>
-    <t>Outros</t>
-  </si>
-  <si>
-    <t>Passivo</t>
-  </si>
-  <si>
     <t>Passivo Circulante</t>
   </si>
   <si>
@@ -101,18 +86,6 @@
     <t>Impostos a Pagar</t>
   </si>
   <si>
-    <t>Financiamento</t>
-  </si>
-  <si>
-    <t>Debêntures</t>
-  </si>
-  <si>
-    <t>Outras Obrigações</t>
-  </si>
-  <si>
-    <t>Provisões</t>
-  </si>
-  <si>
     <t>Passivo Não Circulante</t>
   </si>
   <si>
@@ -273,6 +246,57 @@
   </si>
   <si>
     <t>Caixa Gerado Outros Financiamentos</t>
+  </si>
+  <si>
+    <t>Contas a Receber CP</t>
+  </si>
+  <si>
+    <t>Estoques CP</t>
+  </si>
+  <si>
+    <t>Despesas Antecipadas CP</t>
+  </si>
+  <si>
+    <t>Outros CP</t>
+  </si>
+  <si>
+    <t>Contas a Receber LP</t>
+  </si>
+  <si>
+    <t>Estoques LP</t>
+  </si>
+  <si>
+    <t>Despesas Antecipadas LP</t>
+  </si>
+  <si>
+    <t>Outros LP</t>
+  </si>
+  <si>
+    <t>Financiamento CP</t>
+  </si>
+  <si>
+    <t>Debêntures CP</t>
+  </si>
+  <si>
+    <t>Provisões CP</t>
+  </si>
+  <si>
+    <t>Outras Obrigações CP</t>
+  </si>
+  <si>
+    <t>Financiamento LP</t>
+  </si>
+  <si>
+    <t>Debêntures LP</t>
+  </si>
+  <si>
+    <t>Outras Obrigações LP</t>
+  </si>
+  <si>
+    <t>Provisões LP</t>
+  </si>
+  <si>
+    <t>Passivo Total</t>
   </si>
 </sst>
 </file>
@@ -485,7 +509,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -784,17 +808,17 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="11.88671875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="32.3125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="11.89453125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.89453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -814,7 +838,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -834,7 +858,7 @@
         <v>18062015</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -854,9 +878,9 @@
         <v>8564095</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="11">
         <v>1763552</v>
@@ -874,9 +898,9 @@
         <v>1080705</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="B5" s="11">
         <v>1662025</v>
@@ -895,9 +919,9 @@
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B6" s="11">
         <v>3076734</v>
@@ -915,9 +939,9 @@
         <v>3741278</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="11">
         <v>229364</v>
@@ -935,9 +959,9 @@
         <v>78280</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="B8" s="11">
         <v>57205</v>
@@ -955,9 +979,9 @@
         <v>100980</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="B9" s="11">
         <v>331204</v>
@@ -975,9 +999,9 @@
         <v>1719030</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="9">
         <v>5206929</v>
@@ -995,9 +1019,9 @@
         <v>9497920</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="B11" s="11">
         <v>991402</v>
@@ -1016,9 +1040,9 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="B12" s="11">
         <v>3058927</v>
@@ -1036,9 +1060,9 @@
         <v>4860581</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="B13" s="11">
         <v>36050</v>
@@ -1056,9 +1080,9 @@
         <v>50405</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B14" s="11">
         <v>36643</v>
@@ -1076,9 +1100,9 @@
         <v>60123</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="11">
         <v>783477</v>
@@ -1096,9 +1120,9 @@
         <v>1918962</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="11">
         <v>139986</v>
@@ -1116,9 +1140,9 @@
         <v>564393</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B17" s="11">
         <v>86188</v>
@@ -1136,9 +1160,9 @@
         <v>164431</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="B18" s="11">
         <v>74256</v>
@@ -1156,9 +1180,9 @@
         <v>237931</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="B19" s="7">
         <v>6889526</v>
@@ -1176,9 +1200,9 @@
         <v>12027430</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B20" s="9">
         <v>2924359</v>
@@ -1196,9 +1220,9 @@
         <v>3615810</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B21" s="11">
         <v>110068</v>
@@ -1216,9 +1240,9 @@
         <v>142155</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B22" s="11">
         <v>315109</v>
@@ -1236,9 +1260,9 @@
         <v>467929</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B23" s="11">
         <v>57318</v>
@@ -1256,9 +1280,9 @@
         <v>90477</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="B24" s="11">
         <v>600865</v>
@@ -1276,9 +1300,9 @@
         <v>318251</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="B25" s="11">
         <v>336185</v>
@@ -1296,9 +1320,9 @@
         <v>369269</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="B26" s="11">
         <v>40331</v>
@@ -1316,9 +1340,9 @@
         <v>41647</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="B27" s="11">
         <v>1464483</v>
@@ -1336,9 +1360,9 @@
         <v>2186082</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="8" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B28" s="9">
         <v>3965167</v>
@@ -1356,9 +1380,9 @@
         <v>8411620</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="B29" s="11">
         <v>1376590</v>
@@ -1376,9 +1400,9 @@
         <v>1960044</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="B30" s="11">
         <v>0</v>
@@ -1396,9 +1420,9 @@
         <v>2003967</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="10" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="B31" s="11">
         <v>2351052</v>
@@ -1416,9 +1440,9 @@
         <v>4154479</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="10" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B32" s="11">
         <v>40126</v>
@@ -1436,9 +1460,9 @@
         <v>66734</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="B33" s="11">
         <v>197399</v>
@@ -1456,9 +1480,9 @@
         <v>226396</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B34" s="7">
         <v>5437487</v>
@@ -1476,9 +1500,9 @@
         <v>6034585</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B35" s="11">
         <v>253758</v>
@@ -1496,9 +1520,9 @@
         <v>361254</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="10" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B36" s="11">
         <v>4509521</v>
@@ -1516,9 +1540,9 @@
         <v>4609424</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B37" s="11">
         <v>28977</v>
@@ -1536,9 +1560,9 @@
         <v>59502</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B38" s="11">
         <v>645231</v>
@@ -1556,9 +1580,9 @@
         <v>920796</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B39" s="11">
         <v>0</v>
@@ -1587,17 +1611,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD49F306-CAF3-4637-A099-D438AE3577F0}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="43.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="43.41796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="11.89453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1614,9 +1638,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="13" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B2" s="14">
         <v>332400</v>
@@ -1631,9 +1655,9 @@
         <v>689934</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="15" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16">
         <v>1053428</v>
@@ -1648,9 +1672,9 @@
         <v>1237169</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="17" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B4" s="18">
         <v>700024</v>
@@ -1665,9 +1689,9 @@
         <v>620992</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="17" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B5" s="18">
         <v>49186</v>
@@ -1682,9 +1706,9 @@
         <v>109731</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="17" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B6" s="18">
         <v>0</v>
@@ -1699,9 +1723,9 @@
         <v>-88293</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="17" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B7" s="18">
         <v>9353</v>
@@ -1716,9 +1740,9 @@
         <v>3132</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="17" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B8" s="18">
         <v>33049</v>
@@ -1733,9 +1757,9 @@
         <v>46741</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="17" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B9" s="18">
         <v>-9780</v>
@@ -1750,9 +1774,9 @@
         <v>30320</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="17" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B10" s="18">
         <v>271596</v>
@@ -1767,9 +1791,9 @@
         <v>514546</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="15" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B11" s="16">
         <v>-721028</v>
@@ -1784,9 +1808,9 @@
         <v>94649</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="17" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B12" s="18">
         <v>10789</v>
@@ -1801,9 +1825,9 @@
         <v>-800940</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="17" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B13" s="18">
         <v>-120535</v>
@@ -1818,9 +1842,9 @@
         <v>772063</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="17" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B14" s="18">
         <v>-188833</v>
@@ -1835,9 +1859,9 @@
         <v>-160653</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="17" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B15" s="18">
         <v>-10126</v>
@@ -1852,9 +1876,9 @@
         <v>155134</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="17" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B16" s="18">
         <v>17439</v>
@@ -1869,9 +1893,9 @@
         <v>124626</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="17" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B17" s="18">
         <v>-429762</v>
@@ -1886,9 +1910,9 @@
         <v>4419</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="15" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B18" s="16">
         <v>0</v>
@@ -1903,9 +1927,9 @@
         <v>-641884</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="13" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B19" s="14">
         <v>-988534</v>
@@ -1920,9 +1944,9 @@
         <v>-794716</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="15" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B20" s="16">
         <v>-113615</v>
@@ -1937,9 +1961,9 @@
         <v>-637894</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="17" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B21" s="18">
         <v>-38203</v>
@@ -1954,9 +1978,9 @@
         <v>-761306</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="17" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B22" s="18">
         <v>-75412</v>
@@ -1971,9 +1995,9 @@
         <v>-179957</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="17" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B23" s="18">
         <v>0</v>
@@ -1988,9 +2012,9 @@
         <v>303369</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="15" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B24" s="16">
         <v>-811726</v>
@@ -2005,9 +2029,9 @@
         <v>-163628</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="15" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B25" s="16">
         <v>-63193</v>
@@ -2022,9 +2046,9 @@
         <v>6806</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="13" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B26" s="14">
         <v>861322</v>
@@ -2039,9 +2063,9 @@
         <v>511840</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="15" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B27" s="16">
         <v>1068520</v>
@@ -2056,9 +2080,9 @@
         <v>690157</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="17" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B28" s="18">
         <v>3159708</v>
@@ -2073,9 +2097,9 @@
         <v>2492897</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="17" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B29" s="18">
         <v>-2091188</v>
@@ -2090,9 +2114,9 @@
         <v>-1802740</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="15" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B30" s="16">
         <v>-41090</v>
@@ -2107,9 +2131,9 @@
         <v>-26524</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="17" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B31" s="18">
         <v>4615</v>
@@ -2124,9 +2148,9 @@
         <v>-26524</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="17" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B32" s="18">
         <v>-45705</v>
@@ -2141,9 +2165,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="15" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B33" s="16">
         <v>-282390</v>
@@ -2158,9 +2182,9 @@
         <v>-163933</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="15" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B34" s="16">
         <v>116282</v>
@@ -2175,9 +2199,9 @@
         <v>12140</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="13" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B35" s="14">
         <v>0</v>
@@ -2192,9 +2216,9 @@
         <v>-1272</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="19" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B36" s="20">
         <v>205188</v>
@@ -2222,14 +2246,14 @@
       <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="16" width="8.88671875" style="21"/>
+    <col min="1" max="1" width="34.5234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="11.89453125" customWidth="1"/>
+    <col min="6" max="16" width="8.89453125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2246,9 +2270,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B2" s="11">
         <v>4759888</v>
@@ -2263,9 +2287,9 @@
         <v>6646359</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B3" s="11">
         <v>3147749</v>
@@ -2280,9 +2304,9 @@
         <v>4772021</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="8" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B4" s="9">
         <v>1612139</v>
@@ -2308,9 +2332,9 @@
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B5" s="11">
         <v>550298</v>
@@ -2325,9 +2349,9 @@
         <v>649261</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B6" s="11">
         <v>319719</v>
@@ -2342,9 +2366,9 @@
         <v>433410</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B7" s="11">
         <v>72927</v>
@@ -2359,9 +2383,9 @@
         <v>98083</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B8" s="11">
         <v>115487</v>
@@ -2376,9 +2400,9 @@
         <v>129274</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B9" s="11">
         <v>-33049</v>
@@ -2393,9 +2417,9 @@
         <v>-46741</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B10" s="9">
         <v>666513</v>
@@ -2421,9 +2445,9 @@
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B11" s="11">
         <v>283030</v>
@@ -2438,9 +2462,9 @@
         <v>155541</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B12" s="11">
         <v>144348</v>
@@ -2455,9 +2479,9 @@
         <v>108529</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B13" s="9">
         <v>805195</v>
@@ -2483,9 +2507,9 @@
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B14" s="11">
         <v>105171</v>
@@ -2500,9 +2524,9 @@
         <v>139755</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B15" s="7">
         <v>700024</v>

--- a/DFs-MRV-Limpo.xlsx
+++ b/DFs-MRV-Limpo.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\INSPER\Engenharia\7-Semestre\Financas-I\APS\Analise-MRV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luvi/Desktop/Analise-MRV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E524B2AE-8DC4-4FA2-938A-BA545037AACD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A03B397-60AE-BB43-80E6-8E49FA7723B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="1830" windowWidth="17280" windowHeight="8994" activeTab="1" xr2:uid="{4AED71FF-91D9-491B-A893-2F3A98F1C88C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="3" xr2:uid="{4AED71FF-91D9-491B-A893-2F3A98F1C88C}"/>
   </bookViews>
   <sheets>
     <sheet name="BP" sheetId="1" r:id="rId1"/>
     <sheet name="DFC" sheetId="2" r:id="rId2"/>
     <sheet name="DRE" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -429,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -491,6 +492,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -807,18 +809,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2EB8EF-9E07-481F-986E-67E9360D3EB6}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView showGridLines="0" topLeftCell="A18" zoomScale="210" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.3125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="11.89453125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.89453125" style="1"/>
+    <col min="1" max="1" width="32.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="11.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -838,7 +840,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -858,7 +860,7 @@
         <v>18062015</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -878,7 +880,7 @@
         <v>8564095</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
@@ -898,7 +900,7 @@
         <v>1080705</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>70</v>
       </c>
@@ -919,7 +921,7 @@
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>71</v>
       </c>
@@ -939,7 +941,7 @@
         <v>3741278</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
@@ -959,7 +961,7 @@
         <v>78280</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>72</v>
       </c>
@@ -979,7 +981,7 @@
         <v>100980</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>73</v>
       </c>
@@ -999,7 +1001,7 @@
         <v>1719030</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
@@ -1019,7 +1021,7 @@
         <v>9497920</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>74</v>
       </c>
@@ -1040,7 +1042,7 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>75</v>
       </c>
@@ -1060,7 +1062,7 @@
         <v>4860581</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>76</v>
       </c>
@@ -1080,7 +1082,7 @@
         <v>50405</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>8</v>
       </c>
@@ -1100,7 +1102,7 @@
         <v>60123</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>4</v>
       </c>
@@ -1120,7 +1122,7 @@
         <v>1918962</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>5</v>
       </c>
@@ -1140,7 +1142,7 @@
         <v>564393</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>9</v>
       </c>
@@ -1160,7 +1162,7 @@
         <v>164431</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>77</v>
       </c>
@@ -1180,7 +1182,7 @@
         <v>237931</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>86</v>
       </c>
@@ -1200,7 +1202,7 @@
         <v>12027430</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>10</v>
       </c>
@@ -1220,7 +1222,7 @@
         <v>3615810</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>13</v>
       </c>
@@ -1240,7 +1242,7 @@
         <v>142155</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>14</v>
       </c>
@@ -1260,7 +1262,7 @@
         <v>467929</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>15</v>
       </c>
@@ -1280,7 +1282,7 @@
         <v>90477</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>78</v>
       </c>
@@ -1300,7 +1302,7 @@
         <v>318251</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>79</v>
       </c>
@@ -1320,7 +1322,7 @@
         <v>369269</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>80</v>
       </c>
@@ -1340,7 +1342,7 @@
         <v>41647</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>81</v>
       </c>
@@ -1360,7 +1362,7 @@
         <v>2186082</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>16</v>
       </c>
@@ -1380,7 +1382,7 @@
         <v>8411620</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>82</v>
       </c>
@@ -1400,7 +1402,7 @@
         <v>1960044</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>83</v>
       </c>
@@ -1420,7 +1422,7 @@
         <v>2003967</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
         <v>84</v>
       </c>
@@ -1440,7 +1442,7 @@
         <v>4154479</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>17</v>
       </c>
@@ -1460,7 +1462,7 @@
         <v>66734</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>85</v>
       </c>
@@ -1480,7 +1482,7 @@
         <v>226396</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>18</v>
       </c>
@@ -1500,7 +1502,7 @@
         <v>6034585</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
         <v>34</v>
       </c>
@@ -1520,7 +1522,7 @@
         <v>361254</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>19</v>
       </c>
@@ -1540,7 +1542,7 @@
         <v>4609424</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
         <v>11</v>
       </c>
@@ -1560,7 +1562,7 @@
         <v>59502</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
         <v>12</v>
       </c>
@@ -1580,7 +1582,7 @@
         <v>920796</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
         <v>20</v>
       </c>
@@ -1611,17 +1613,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD49F306-CAF3-4637-A099-D438AE3577F0}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="222" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.41796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="11.89453125" customWidth="1"/>
+    <col min="1" max="1" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1638,7 +1640,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>36</v>
       </c>
@@ -1655,7 +1657,7 @@
         <v>689934</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>42</v>
       </c>
@@ -1672,7 +1674,7 @@
         <v>1237169</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>43</v>
       </c>
@@ -1689,7 +1691,7 @@
         <v>620992</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>44</v>
       </c>
@@ -1706,7 +1708,7 @@
         <v>109731</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>45</v>
       </c>
@@ -1723,7 +1725,7 @@
         <v>-88293</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>46</v>
       </c>
@@ -1740,7 +1742,7 @@
         <v>3132</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>47</v>
       </c>
@@ -1757,7 +1759,7 @@
         <v>46741</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>17</v>
       </c>
@@ -1774,7 +1776,7 @@
         <v>30320</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>48</v>
       </c>
@@ -1791,7 +1793,7 @@
         <v>514546</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>37</v>
       </c>
@@ -1808,7 +1810,7 @@
         <v>94649</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>49</v>
       </c>
@@ -1825,7 +1827,7 @@
         <v>-800940</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>50</v>
       </c>
@@ -1842,7 +1844,7 @@
         <v>772063</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>51</v>
       </c>
@@ -1859,7 +1861,7 @@
         <v>-160653</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>52</v>
       </c>
@@ -1876,7 +1878,7 @@
         <v>155134</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
         <v>53</v>
       </c>
@@ -1893,7 +1895,7 @@
         <v>124626</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>54</v>
       </c>
@@ -1910,7 +1912,7 @@
         <v>4419</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>55</v>
       </c>
@@ -1927,7 +1929,7 @@
         <v>-641884</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>38</v>
       </c>
@@ -1944,7 +1946,7 @@
         <v>-794716</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>56</v>
       </c>
@@ -1961,7 +1963,7 @@
         <v>-637894</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
         <v>57</v>
       </c>
@@ -1978,7 +1980,7 @@
         <v>-761306</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
         <v>58</v>
       </c>
@@ -1995,7 +1997,7 @@
         <v>-179957</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
         <v>59</v>
       </c>
@@ -2012,7 +2014,7 @@
         <v>303369</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>60</v>
       </c>
@@ -2029,7 +2031,7 @@
         <v>-163628</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
         <v>61</v>
       </c>
@@ -2046,7 +2048,7 @@
         <v>6806</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>39</v>
       </c>
@@ -2063,7 +2065,7 @@
         <v>511840</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
         <v>62</v>
       </c>
@@ -2080,7 +2082,7 @@
         <v>690157</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
         <v>63</v>
       </c>
@@ -2097,7 +2099,7 @@
         <v>2492897</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
         <v>64</v>
       </c>
@@ -2114,7 +2116,7 @@
         <v>-1802740</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
         <v>65</v>
       </c>
@@ -2131,7 +2133,7 @@
         <v>-26524</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
         <v>66</v>
       </c>
@@ -2148,7 +2150,7 @@
         <v>-26524</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
         <v>67</v>
       </c>
@@ -2165,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
         <v>68</v>
       </c>
@@ -2182,7 +2184,7 @@
         <v>-163933</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
         <v>69</v>
       </c>
@@ -2199,7 +2201,7 @@
         <v>12140</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>40</v>
       </c>
@@ -2216,7 +2218,7 @@
         <v>-1272</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
         <v>41</v>
       </c>
@@ -2242,18 +2244,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3FD37F-98C5-40E3-B1ED-6BEB19E70B1C}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView showGridLines="0" zoomScale="184" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.5234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="11.89453125" customWidth="1"/>
-    <col min="6" max="16" width="8.89453125" style="21"/>
+    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="11.83203125" customWidth="1"/>
+    <col min="6" max="16" width="8.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2270,7 +2272,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>21</v>
       </c>
@@ -2287,7 +2289,7 @@
         <v>6646359</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>22</v>
       </c>
@@ -2304,7 +2306,7 @@
         <v>4772021</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>23</v>
       </c>
@@ -2332,7 +2334,7 @@
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>24</v>
       </c>
@@ -2349,7 +2351,7 @@
         <v>649261</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>25</v>
       </c>
@@ -2366,7 +2368,7 @@
         <v>433410</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>26</v>
       </c>
@@ -2383,7 +2385,7 @@
         <v>98083</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>27</v>
       </c>
@@ -2400,7 +2402,7 @@
         <v>129274</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
@@ -2417,7 +2419,7 @@
         <v>-46741</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>31</v>
       </c>
@@ -2445,7 +2447,7 @@
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>29</v>
       </c>
@@ -2462,7 +2464,7 @@
         <v>155541</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>30</v>
       </c>
@@ -2479,7 +2481,7 @@
         <v>108529</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>32</v>
       </c>
@@ -2507,7 +2509,7 @@
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>33</v>
       </c>
@@ -2524,7 +2526,7 @@
         <v>139755</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>35</v>
       </c>
@@ -2557,4 +2559,77 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2EDE1F-0CA5-454F-B36A-E70AF3985794}">
+  <dimension ref="A5:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2017</v>
+      </c>
+      <c r="B5">
+        <v>2018</v>
+      </c>
+      <c r="C5">
+        <v>2019</v>
+      </c>
+      <c r="D5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="23">
+        <f>DRE!B15</f>
+        <v>700024</v>
+      </c>
+      <c r="B6" s="23">
+        <f>DRE!C15</f>
+        <v>758137</v>
+      </c>
+      <c r="C6" s="23">
+        <f>DRE!D15</f>
+        <v>747876</v>
+      </c>
+      <c r="D6" s="23">
+        <f>DRE!E15</f>
+        <v>620992</v>
+      </c>
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f>A6/A9</f>
+        <v>472989.18918918917</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ref="B7:C7" si="0">B6/B9</f>
+        <v>443354.97076023393</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>445164.28571428574</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1.48</v>
+      </c>
+      <c r="B9">
+        <v>1.71</v>
+      </c>
+      <c r="C9">
+        <v>1.68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DFs-MRV-Limpo.xlsx
+++ b/DFs-MRV-Limpo.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luvi/Desktop/Analise-MRV/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\INSPER\Engenharia\7-Semestre\Financas-I\APS\Analise-MRV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A03B397-60AE-BB43-80E6-8E49FA7723B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC9EBA8-C620-4BC6-90DF-C02A63C04EA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="3" xr2:uid="{4AED71FF-91D9-491B-A893-2F3A98F1C88C}"/>
+    <workbookView xWindow="3222" yWindow="1716" windowWidth="17280" windowHeight="8994" activeTab="3" xr2:uid="{4AED71FF-91D9-491B-A893-2F3A98F1C88C}"/>
   </bookViews>
   <sheets>
     <sheet name="BP" sheetId="1" r:id="rId1"/>
     <sheet name="DFC" sheetId="2" r:id="rId2"/>
     <sheet name="DRE" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Ações" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,11 +36,62 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={474D2396-3B5A-4D30-AA2F-97EF85D22CF4}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{474D2396-3B5A-4D30-AA2F-97EF85D22CF4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    R$ em milhares</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={0E5F497C-D1FD-43CB-BC62-853A4DF49BB0}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{0E5F497C-D1FD-43CB-BC62-853A4DF49BB0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    R$ em milhares</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={F83BD455-CFDB-46B2-BCBD-6E6F4D57F8E2}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{F83BD455-CFDB-46B2-BCBD-6E6F4D57F8E2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    R$ em milhares</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
-  <si>
-    <t>MRV ON (R$ em milhares)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="89">
   <si>
     <t>Ativo Total</t>
   </si>
@@ -298,13 +349,22 @@
   </si>
   <si>
     <t>Passivo Total</t>
+  </si>
+  <si>
+    <t>MRV ON</t>
+  </si>
+  <si>
+    <t>Preço por Ação (Fechamento do Ano)</t>
+  </si>
+  <si>
+    <t>Quantidade de Ações</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,6 +435,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -492,7 +558,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,6 +576,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Pedro Ramos" id="{DE9F4A27-840D-4BF8-8C4C-A2DCB8D43F19}" userId="7ae5f1e2c26af788" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -805,24 +879,46 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2021-03-15T03:58:15.99" personId="{DE9F4A27-840D-4BF8-8C4C-A2DCB8D43F19}" id="{474D2396-3B5A-4D30-AA2F-97EF85D22CF4}">
+    <text>R$ em milhares</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2021-03-15T03:58:15.99" personId="{DE9F4A27-840D-4BF8-8C4C-A2DCB8D43F19}" id="{0E5F497C-D1FD-43CB-BC62-853A4DF49BB0}">
+    <text>R$ em milhares</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2021-03-15T03:58:15.99" personId="{DE9F4A27-840D-4BF8-8C4C-A2DCB8D43F19}" id="{F83BD455-CFDB-46B2-BCBD-6E6F4D57F8E2}">
+    <text>R$ em milhares</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2EB8EF-9E07-481F-986E-67E9360D3EB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2EB8EF-9E07-481F-986E-67E9360D3EB6}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A18" zoomScale="210" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="11.83203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="32.3125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="11.83984375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="B1" s="5">
         <v>2016</v>
@@ -840,9 +936,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="7">
         <v>12327013</v>
@@ -860,9 +956,9 @@
         <v>18062015</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="9">
         <v>7120084</v>
@@ -880,9 +976,9 @@
         <v>8564095</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="11">
         <v>1763552</v>
@@ -900,9 +996,9 @@
         <v>1080705</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="11">
         <v>1662025</v>
@@ -921,9 +1017,9 @@
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="11">
         <v>3076734</v>
@@ -941,9 +1037,9 @@
         <v>3741278</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="11">
         <v>229364</v>
@@ -961,9 +1057,9 @@
         <v>78280</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="11">
         <v>57205</v>
@@ -981,9 +1077,9 @@
         <v>100980</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="11">
         <v>331204</v>
@@ -1001,9 +1097,9 @@
         <v>1719030</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="9">
         <v>5206929</v>
@@ -1021,9 +1117,9 @@
         <v>9497920</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" s="11">
         <v>991402</v>
@@ -1042,9 +1138,9 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" s="11">
         <v>3058927</v>
@@ -1062,9 +1158,9 @@
         <v>4860581</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="11">
         <v>36050</v>
@@ -1082,9 +1178,9 @@
         <v>50405</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="11">
         <v>36643</v>
@@ -1102,9 +1198,9 @@
         <v>60123</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="11">
         <v>783477</v>
@@ -1122,9 +1218,9 @@
         <v>1918962</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="11">
         <v>139986</v>
@@ -1142,9 +1238,9 @@
         <v>564393</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="11">
         <v>86188</v>
@@ -1162,9 +1258,9 @@
         <v>164431</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B18" s="11">
         <v>74256</v>
@@ -1182,9 +1278,9 @@
         <v>237931</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" s="7">
         <v>6889526</v>
@@ -1202,9 +1298,9 @@
         <v>12027430</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" s="9">
         <v>2924359</v>
@@ -1222,9 +1318,9 @@
         <v>3615810</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="11">
         <v>110068</v>
@@ -1242,9 +1338,9 @@
         <v>142155</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="11">
         <v>315109</v>
@@ -1262,9 +1358,9 @@
         <v>467929</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="11">
         <v>57318</v>
@@ -1282,9 +1378,9 @@
         <v>90477</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B24" s="11">
         <v>600865</v>
@@ -1302,9 +1398,9 @@
         <v>318251</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B25" s="11">
         <v>336185</v>
@@ -1322,9 +1418,9 @@
         <v>369269</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B26" s="11">
         <v>40331</v>
@@ -1342,9 +1438,9 @@
         <v>41647</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B27" s="11">
         <v>1464483</v>
@@ -1362,9 +1458,9 @@
         <v>2186082</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28" s="9">
         <v>3965167</v>
@@ -1382,9 +1478,9 @@
         <v>8411620</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B29" s="11">
         <v>1376590</v>
@@ -1402,9 +1498,9 @@
         <v>1960044</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B30" s="11">
         <v>0</v>
@@ -1422,9 +1518,9 @@
         <v>2003967</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B31" s="11">
         <v>2351052</v>
@@ -1442,9 +1538,9 @@
         <v>4154479</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32" s="11">
         <v>40126</v>
@@ -1462,9 +1558,9 @@
         <v>66734</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B33" s="11">
         <v>197399</v>
@@ -1482,9 +1578,9 @@
         <v>226396</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B34" s="7">
         <v>5437487</v>
@@ -1502,9 +1598,9 @@
         <v>6034585</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="11">
         <v>253758</v>
@@ -1522,9 +1618,9 @@
         <v>361254</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B36" s="11">
         <v>4509521</v>
@@ -1542,9 +1638,9 @@
         <v>4609424</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B37" s="11">
         <v>28977</v>
@@ -1562,9 +1658,9 @@
         <v>59502</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" s="11">
         <v>645231</v>
@@ -1582,9 +1678,9 @@
         <v>920796</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B39" s="11">
         <v>0</v>
@@ -1606,26 +1702,25 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD49F306-CAF3-4637-A099-D438AE3577F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD49F306-CAF3-4637-A099-D438AE3577F0}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="222" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="43.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="11.83203125" customWidth="1"/>
+    <col min="1" max="1" width="43.47265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="11.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="B1" s="5">
         <v>2017</v>
@@ -1640,9 +1735,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="14">
         <v>332400</v>
@@ -1657,9 +1752,9 @@
         <v>689934</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="16">
         <v>1053428</v>
@@ -1674,9 +1769,9 @@
         <v>1237169</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="18">
         <v>700024</v>
@@ -1691,9 +1786,9 @@
         <v>620992</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="18">
         <v>49186</v>
@@ -1708,9 +1803,9 @@
         <v>109731</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="18">
         <v>0</v>
@@ -1725,9 +1820,9 @@
         <v>-88293</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="18">
         <v>9353</v>
@@ -1742,9 +1837,9 @@
         <v>3132</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="18">
         <v>33049</v>
@@ -1759,9 +1854,9 @@
         <v>46741</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="18">
         <v>-9780</v>
@@ -1776,9 +1871,9 @@
         <v>30320</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="18">
         <v>271596</v>
@@ -1793,9 +1888,9 @@
         <v>514546</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="16">
         <v>-721028</v>
@@ -1810,9 +1905,9 @@
         <v>94649</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="18">
         <v>10789</v>
@@ -1827,9 +1922,9 @@
         <v>-800940</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="18">
         <v>-120535</v>
@@ -1844,9 +1939,9 @@
         <v>772063</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="18">
         <v>-188833</v>
@@ -1861,9 +1956,9 @@
         <v>-160653</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="18">
         <v>-10126</v>
@@ -1878,9 +1973,9 @@
         <v>155134</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="18">
         <v>17439</v>
@@ -1895,9 +1990,9 @@
         <v>124626</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="18">
         <v>-429762</v>
@@ -1912,9 +2007,9 @@
         <v>4419</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="16">
         <v>0</v>
@@ -1929,9 +2024,9 @@
         <v>-641884</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="14">
         <v>-988534</v>
@@ -1946,9 +2041,9 @@
         <v>-794716</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="16">
         <v>-113615</v>
@@ -1963,9 +2058,9 @@
         <v>-637894</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" s="18">
         <v>-38203</v>
@@ -1980,9 +2075,9 @@
         <v>-761306</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" s="18">
         <v>-75412</v>
@@ -1997,9 +2092,9 @@
         <v>-179957</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" s="18">
         <v>0</v>
@@ -2014,9 +2109,9 @@
         <v>303369</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B24" s="16">
         <v>-811726</v>
@@ -2031,9 +2126,9 @@
         <v>-163628</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25" s="16">
         <v>-63193</v>
@@ -2048,9 +2143,9 @@
         <v>6806</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" s="14">
         <v>861322</v>
@@ -2065,9 +2160,9 @@
         <v>511840</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="16">
         <v>1068520</v>
@@ -2082,9 +2177,9 @@
         <v>690157</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" s="18">
         <v>3159708</v>
@@ -2099,9 +2194,9 @@
         <v>2492897</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" s="18">
         <v>-2091188</v>
@@ -2116,9 +2211,9 @@
         <v>-1802740</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30" s="16">
         <v>-41090</v>
@@ -2133,9 +2228,9 @@
         <v>-26524</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" s="18">
         <v>4615</v>
@@ -2150,9 +2245,9 @@
         <v>-26524</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B32" s="18">
         <v>-45705</v>
@@ -2167,9 +2262,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B33" s="16">
         <v>-282390</v>
@@ -2184,9 +2279,9 @@
         <v>-163933</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B34" s="16">
         <v>116282</v>
@@ -2201,9 +2296,9 @@
         <v>12140</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="14">
         <v>0</v>
@@ -2218,9 +2313,9 @@
         <v>-1272</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="20">
         <v>205188</v>
@@ -2237,27 +2332,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3FD37F-98C5-40E3-B1ED-6BEB19E70B1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3FD37F-98C5-40E3-B1ED-6BEB19E70B1C}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="184" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="11.83203125" customWidth="1"/>
-    <col min="6" max="16" width="8.83203125" style="21"/>
+    <col min="1" max="1" width="34.47265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="11.83984375" customWidth="1"/>
+    <col min="6" max="16" width="8.83984375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="B1" s="5">
         <v>2017</v>
@@ -2272,9 +2368,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="11">
         <v>4759888</v>
@@ -2289,9 +2385,9 @@
         <v>6646359</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="11">
         <v>3147749</v>
@@ -2306,9 +2402,9 @@
         <v>4772021</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="9">
         <v>1612139</v>
@@ -2334,9 +2430,9 @@
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="11">
         <v>550298</v>
@@ -2351,9 +2447,9 @@
         <v>649261</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="11">
         <v>319719</v>
@@ -2368,9 +2464,9 @@
         <v>433410</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="11">
         <v>72927</v>
@@ -2385,9 +2481,9 @@
         <v>98083</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="11">
         <v>115487</v>
@@ -2402,9 +2498,9 @@
         <v>129274</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="11">
         <v>-33049</v>
@@ -2419,9 +2515,9 @@
         <v>-46741</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="9">
         <v>666513</v>
@@ -2447,9 +2543,9 @@
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="11">
         <v>283030</v>
@@ -2464,9 +2560,9 @@
         <v>155541</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="11">
         <v>144348</v>
@@ -2481,9 +2577,9 @@
         <v>108529</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="9">
         <v>805195</v>
@@ -2509,9 +2605,9 @@
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="11">
         <v>105171</v>
@@ -2526,9 +2622,9 @@
         <v>139755</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="7">
         <v>700024</v>
@@ -2558,76 +2654,223 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2EDE1F-0CA5-454F-B36A-E70AF3985794}">
-  <dimension ref="A5:E9"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="34.47265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="11.83984375" customWidth="1"/>
+    <col min="6" max="16" width="8.83984375" style="21"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="5">
         <v>2017</v>
       </c>
-      <c r="B5">
+      <c r="C1" s="5">
         <v>2018</v>
       </c>
-      <c r="C5">
+      <c r="D1" s="5">
         <v>2019</v>
       </c>
-      <c r="D5">
+      <c r="E1" s="5">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="23">
-        <f>DRE!B15</f>
-        <v>700024</v>
-      </c>
-      <c r="B6" s="23">
-        <f>DRE!C15</f>
-        <v>758137</v>
-      </c>
-      <c r="C6" s="23">
-        <f>DRE!D15</f>
-        <v>747876</v>
-      </c>
-      <c r="D6" s="23">
-        <f>DRE!E15</f>
-        <v>620992</v>
-      </c>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <f>A6/A9</f>
-        <v>472989.18918918917</v>
-      </c>
-      <c r="B7">
-        <f t="shared" ref="B7:C7" si="0">B6/B9</f>
-        <v>443354.97076023393</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>445164.28571428574</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1.48</v>
-      </c>
-      <c r="B9">
-        <v>1.71</v>
-      </c>
-      <c r="C9">
-        <v>1.68</v>
-      </c>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="23">
+        <v>10.619189782999999</v>
+      </c>
+      <c r="C2" s="23">
+        <v>11.268418542999999</v>
+      </c>
+      <c r="D2" s="23">
+        <v>20.921103453000001</v>
+      </c>
+      <c r="E2" s="23">
+        <v>18.754560669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="11">
+        <v>441848</v>
+      </c>
+      <c r="C3" s="11">
+        <v>441011</v>
+      </c>
+      <c r="D3" s="11">
+        <v>443821</v>
+      </c>
+      <c r="E3" s="11">
+        <v>481953</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+    </row>
+    <row r="10" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+    </row>
+    <row r="13" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+    </row>
+    <row r="15" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DFs-MRV-Limpo.xlsx
+++ b/DFs-MRV-Limpo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\INSPER\Engenharia\7-Semestre\Financas-I\APS\Analise-MRV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC9EBA8-C620-4BC6-90DF-C02A63C04EA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC0A7C2-FA8C-4A7E-BAB8-CC2CB4B3CFA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3222" yWindow="1716" windowWidth="17280" windowHeight="8994" activeTab="3" xr2:uid="{4AED71FF-91D9-491B-A893-2F3A98F1C88C}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{4AED71FF-91D9-491B-A893-2F3A98F1C88C}"/>
   </bookViews>
   <sheets>
     <sheet name="BP" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="96">
   <si>
     <t>Ativo Total</t>
   </si>
@@ -358,12 +358,36 @@
   </si>
   <si>
     <t>Quantidade de Ações</t>
+  </si>
+  <si>
+    <t>AV 2016</t>
+  </si>
+  <si>
+    <t>AV 2017</t>
+  </si>
+  <si>
+    <t>AV 2018</t>
+  </si>
+  <si>
+    <t>AV 2019</t>
+  </si>
+  <si>
+    <t>AV 2020</t>
+  </si>
+  <si>
+    <t>AH 2016 - 2020</t>
+  </si>
+  <si>
+    <t>AH 2017 - 2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -437,10 +461,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -493,10 +518,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -561,9 +587,28 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -905,797 +950,1729 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2EB8EF-9E07-481F-986E-67E9360D3EB6}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="32.3125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="11.83984375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83984375" style="1"/>
+    <col min="2" max="12" width="13.15625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>86</v>
       </c>
       <c r="B1" s="5">
         <v>2016</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="5">
         <v>2017</v>
       </c>
-      <c r="D1" s="5">
+      <c r="E1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="5">
         <v>2018</v>
       </c>
-      <c r="E1" s="5">
+      <c r="G1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="5">
         <v>2019</v>
       </c>
-      <c r="F1" s="5">
+      <c r="I1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="7">
         <v>12327013</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="27">
+        <f>B2/B$2</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="7">
         <v>14558500</v>
       </c>
-      <c r="D2" s="7">
+      <c r="E2" s="27">
+        <f>D2/D$2</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="7">
         <v>13636891</v>
       </c>
-      <c r="E2" s="7">
+      <c r="G2" s="27">
+        <f>F2/F$2</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="7">
         <v>14686323</v>
       </c>
-      <c r="F2" s="7">
+      <c r="I2" s="27">
+        <f>H2/H$2</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="7">
         <v>18062015</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K2" s="27">
+        <f>J2/J$2</f>
+        <v>1</v>
+      </c>
+      <c r="L2" s="27">
+        <f>J2/B2</f>
+        <v>1.4652385780724009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="9">
         <v>7120084</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="28">
+        <f t="shared" ref="C3:E18" si="0">B3/B$2</f>
+        <v>0.57760010474556978</v>
+      </c>
+      <c r="D3" s="9">
         <v>8315552</v>
       </c>
-      <c r="D3" s="9">
+      <c r="E3" s="28">
+        <f t="shared" si="0"/>
+        <v>0.5711819212144108</v>
+      </c>
+      <c r="F3" s="9">
         <v>7861258</v>
       </c>
-      <c r="E3" s="9">
+      <c r="G3" s="28">
+        <f t="shared" ref="G3:I3" si="1">F3/F$2</f>
+        <v>0.57646995931843992</v>
+      </c>
+      <c r="H3" s="9">
         <v>7801154</v>
       </c>
-      <c r="F3" s="9">
+      <c r="I3" s="28">
+        <f t="shared" si="1"/>
+        <v>0.53118496712894026</v>
+      </c>
+      <c r="J3" s="9">
         <v>8564095</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K3" s="28">
+        <f t="shared" ref="K3:L3" si="2">J3/J$2</f>
+        <v>0.47414947889258202</v>
+      </c>
+      <c r="L3" s="28">
+        <f t="shared" ref="L3:L39" si="3">J3/B3</f>
+        <v>1.2028081410275497</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="11">
         <v>1763552</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="29">
+        <f t="shared" si="0"/>
+        <v>0.14306401721163106</v>
+      </c>
+      <c r="D4" s="11">
         <v>713123</v>
       </c>
-      <c r="D4" s="11">
+      <c r="E4" s="29">
+        <f t="shared" si="0"/>
+        <v>4.8983274375794209E-2</v>
+      </c>
+      <c r="F4" s="11">
         <v>794852</v>
       </c>
-      <c r="E4" s="11">
+      <c r="G4" s="29">
+        <f t="shared" ref="G4:I4" si="4">F4/F$2</f>
+        <v>5.8286892518243344E-2</v>
+      </c>
+      <c r="H4" s="11">
         <v>674919</v>
       </c>
-      <c r="F4" s="11">
+      <c r="I4" s="29">
+        <f t="shared" si="4"/>
+        <v>4.5955614621849189E-2</v>
+      </c>
+      <c r="J4" s="11">
         <v>1080705</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K4" s="29">
+        <f t="shared" ref="K4:L4" si="5">J4/J$2</f>
+        <v>5.9833025274311863E-2</v>
+      </c>
+      <c r="L4" s="29">
+        <f t="shared" si="3"/>
+        <v>0.61280018961731775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
         <v>69</v>
       </c>
       <c r="B5" s="11">
         <v>1662025</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="29">
+        <f t="shared" si="0"/>
+        <v>0.13482787760506135</v>
+      </c>
+      <c r="D5" s="11">
         <v>1594050</v>
       </c>
-      <c r="D5" s="11">
+      <c r="E5" s="29">
+        <f t="shared" si="0"/>
+        <v>0.10949273620221864</v>
+      </c>
+      <c r="F5" s="11">
         <v>1457630</v>
       </c>
-      <c r="E5" s="11">
+      <c r="G5" s="29">
+        <f t="shared" ref="G5:I5" si="6">F5/F$2</f>
+        <v>0.10688873292306876</v>
+      </c>
+      <c r="H5" s="11">
         <v>1556427</v>
       </c>
-      <c r="F5" s="11">
+      <c r="I5" s="29">
+        <f t="shared" si="6"/>
+        <v>0.10597799054262935</v>
+      </c>
+      <c r="J5" s="11">
         <v>1843822</v>
       </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K5" s="29">
+        <f t="shared" ref="K5:L5" si="7">J5/J$2</f>
+        <v>0.10208285177484351</v>
+      </c>
+      <c r="L5" s="29">
+        <f t="shared" si="3"/>
+        <v>1.1093828311848497</v>
+      </c>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10" t="s">
         <v>70</v>
       </c>
       <c r="B6" s="11">
         <v>3076734</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="29">
+        <f t="shared" si="0"/>
+        <v>0.2495928251231665</v>
+      </c>
+      <c r="D6" s="11">
         <v>3385767</v>
       </c>
-      <c r="D6" s="11">
+      <c r="E6" s="29">
+        <f t="shared" si="0"/>
+        <v>0.23256290139780883</v>
+      </c>
+      <c r="F6" s="11">
         <v>3752301</v>
       </c>
-      <c r="E6" s="11">
+      <c r="G6" s="29">
+        <f t="shared" ref="G6:I6" si="8">F6/F$2</f>
+        <v>0.27515809871912889</v>
+      </c>
+      <c r="H6" s="11">
         <v>3959745</v>
       </c>
-      <c r="F6" s="11">
+      <c r="I6" s="29">
+        <f t="shared" si="8"/>
+        <v>0.26962126599013247</v>
+      </c>
+      <c r="J6" s="11">
         <v>3741278</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K6" s="29">
+        <f t="shared" ref="K6:L6" si="9">J6/J$2</f>
+        <v>0.2071351396840275</v>
+      </c>
+      <c r="L6" s="29">
+        <f t="shared" si="3"/>
+        <v>1.2159900725899606</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="11">
         <v>229364</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="29">
+        <f t="shared" si="0"/>
+        <v>1.8606616217570308E-2</v>
+      </c>
+      <c r="D7" s="11">
         <v>129357</v>
       </c>
-      <c r="D7" s="11">
+      <c r="E7" s="29">
+        <f t="shared" si="0"/>
+        <v>8.8853247243878154E-3</v>
+      </c>
+      <c r="F7" s="11">
         <v>107405</v>
       </c>
-      <c r="E7" s="11">
+      <c r="G7" s="29">
+        <f t="shared" ref="G7:I7" si="10">F7/F$2</f>
+        <v>7.8760620730927607E-3</v>
+      </c>
+      <c r="H7" s="11">
         <v>98544</v>
       </c>
-      <c r="F7" s="11">
+      <c r="I7" s="29">
+        <f t="shared" si="10"/>
+        <v>6.7099164304094362E-3</v>
+      </c>
+      <c r="J7" s="11">
         <v>78280</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K7" s="29">
+        <f t="shared" ref="K7:L7" si="11">J7/J$2</f>
+        <v>4.3339572024494498E-3</v>
+      </c>
+      <c r="L7" s="29">
+        <f t="shared" si="3"/>
+        <v>0.34129157147590727</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B8" s="11">
         <v>57205</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6406213735638961E-3</v>
+      </c>
+      <c r="D8" s="11">
         <v>75655</v>
       </c>
-      <c r="D8" s="11">
+      <c r="E8" s="29">
+        <f t="shared" si="0"/>
+        <v>5.1966205309612939E-3</v>
+      </c>
+      <c r="F8" s="11">
         <v>92454</v>
       </c>
-      <c r="E8" s="11">
+      <c r="G8" s="29">
+        <f t="shared" ref="G8:I8" si="12">F8/F$2</f>
+        <v>6.7796978064868308E-3</v>
+      </c>
+      <c r="H8" s="11">
         <v>81814</v>
       </c>
-      <c r="F8" s="11">
+      <c r="I8" s="29">
+        <f t="shared" si="12"/>
+        <v>5.5707613130938222E-3</v>
+      </c>
+      <c r="J8" s="11">
         <v>100980</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K8" s="29">
+        <f t="shared" ref="K8:L8" si="13">J8/J$2</f>
+        <v>5.5907383533896965E-3</v>
+      </c>
+      <c r="L8" s="29">
+        <f t="shared" si="3"/>
+        <v>1.7652303120356612</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B9" s="11">
         <v>331204</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="29">
+        <f t="shared" si="0"/>
+        <v>2.6868147214576636E-2</v>
+      </c>
+      <c r="D9" s="11">
         <v>2417600</v>
       </c>
-      <c r="D9" s="11">
+      <c r="E9" s="29">
+        <f t="shared" si="0"/>
+        <v>0.16606106398324003</v>
+      </c>
+      <c r="F9" s="11">
         <v>1656616</v>
       </c>
-      <c r="E9" s="11">
+      <c r="G9" s="29">
+        <f t="shared" ref="G9:I9" si="14">F9/F$2</f>
+        <v>0.1214804752784194</v>
+      </c>
+      <c r="H9" s="11">
         <v>1429705</v>
       </c>
-      <c r="F9" s="11">
+      <c r="I9" s="29">
+        <f t="shared" si="14"/>
+        <v>9.734941823082606E-2</v>
+      </c>
+      <c r="J9" s="11">
         <v>1719030</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K9" s="29">
+        <f t="shared" ref="K9:L9" si="15">J9/J$2</f>
+        <v>9.5173766603560014E-2</v>
+      </c>
+      <c r="L9" s="29">
+        <f t="shared" si="3"/>
+        <v>5.1902452868926705</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="9">
         <v>5206929</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="28">
+        <f t="shared" si="0"/>
+        <v>0.42239989525443022</v>
+      </c>
+      <c r="D10" s="9">
         <v>6242948</v>
       </c>
-      <c r="D10" s="9">
+      <c r="E10" s="28">
+        <f t="shared" si="0"/>
+        <v>0.4288180787855892</v>
+      </c>
+      <c r="F10" s="9">
         <v>5775633</v>
       </c>
-      <c r="E10" s="9">
+      <c r="G10" s="28">
+        <f t="shared" ref="G10:I10" si="16">F10/F$2</f>
+        <v>0.42353004068156003</v>
+      </c>
+      <c r="H10" s="9">
         <v>6885169</v>
       </c>
-      <c r="F10" s="9">
+      <c r="I10" s="28">
+        <f t="shared" si="16"/>
+        <v>0.46881503287105969</v>
+      </c>
+      <c r="J10" s="9">
         <v>9497920</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K10" s="28">
+        <f t="shared" ref="K10:L10" si="17">J10/J$2</f>
+        <v>0.52585052110741792</v>
+      </c>
+      <c r="L10" s="28">
+        <f t="shared" si="3"/>
+        <v>1.8240924737018691</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
         <v>73</v>
       </c>
       <c r="B11" s="11">
         <v>991402</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="29">
+        <f t="shared" si="0"/>
+        <v>8.0425160580263846E-2</v>
+      </c>
+      <c r="D11" s="11">
         <v>1022875</v>
       </c>
-      <c r="D11" s="11">
+      <c r="E11" s="29">
+        <f t="shared" si="0"/>
+        <v>7.0259642133461558E-2</v>
+      </c>
+      <c r="F11" s="11">
         <v>829693</v>
       </c>
-      <c r="E11" s="11">
+      <c r="G11" s="29">
+        <f t="shared" ref="G11:I11" si="18">F11/F$2</f>
+        <v>6.0841800378106714E-2</v>
+      </c>
+      <c r="H11" s="11">
         <v>1153277</v>
       </c>
-      <c r="F11" s="11">
+      <c r="I11" s="29">
+        <f t="shared" si="18"/>
+        <v>7.8527280109527753E-2</v>
+      </c>
+      <c r="J11" s="11">
         <v>1641094</v>
       </c>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K11" s="29">
+        <f t="shared" ref="K11:L11" si="19">J11/J$2</f>
+        <v>9.0858854895204108E-2</v>
+      </c>
+      <c r="L11" s="29">
+        <f t="shared" si="3"/>
+        <v>1.6553264972231245</v>
+      </c>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10" t="s">
         <v>74</v>
       </c>
       <c r="B12" s="11">
         <v>3058927</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="29">
+        <f t="shared" si="0"/>
+        <v>0.24814827403848766</v>
+      </c>
+      <c r="D12" s="11">
         <v>3627584</v>
       </c>
-      <c r="D12" s="11">
+      <c r="E12" s="29">
+        <f t="shared" si="0"/>
+        <v>0.2491729230346533</v>
+      </c>
+      <c r="F12" s="11">
         <v>4256862</v>
       </c>
-      <c r="E12" s="11">
+      <c r="G12" s="29">
+        <f t="shared" ref="G12:I12" si="20">F12/F$2</f>
+        <v>0.31215780781704566</v>
+      </c>
+      <c r="H12" s="11">
         <v>4674360</v>
       </c>
-      <c r="F12" s="11">
+      <c r="I12" s="29">
+        <f t="shared" si="20"/>
+        <v>0.31827980359685676</v>
+      </c>
+      <c r="J12" s="11">
         <v>4860581</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K12" s="29">
+        <f t="shared" ref="K12:L12" si="21">J12/J$2</f>
+        <v>0.26910513583340506</v>
+      </c>
+      <c r="L12" s="29">
+        <f t="shared" si="3"/>
+        <v>1.5889823457702652</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10" t="s">
         <v>75</v>
       </c>
       <c r="B13" s="11">
         <v>36050</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="29">
+        <f t="shared" si="0"/>
+        <v>2.9244716461319545E-3</v>
+      </c>
+      <c r="D13" s="11">
         <v>40660</v>
       </c>
-      <c r="D13" s="11">
+      <c r="E13" s="29">
+        <f t="shared" si="0"/>
+        <v>2.7928701445890719E-3</v>
+      </c>
+      <c r="F13" s="11">
         <v>37865</v>
       </c>
-      <c r="E13" s="11">
+      <c r="G13" s="29">
+        <f t="shared" ref="G13:I13" si="22">F13/F$2</f>
+        <v>2.7766592839966234E-3</v>
+      </c>
+      <c r="H13" s="11">
         <v>30386</v>
       </c>
-      <c r="F13" s="11">
+      <c r="I13" s="29">
+        <f t="shared" si="22"/>
+        <v>2.0689998442768825E-3</v>
+      </c>
+      <c r="J13" s="11">
         <v>50405</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K13" s="29">
+        <f t="shared" ref="K13:L13" si="23">J13/J$2</f>
+        <v>2.7906631679798736E-3</v>
+      </c>
+      <c r="L13" s="29">
+        <f t="shared" si="3"/>
+        <v>1.3981969486823855</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="11">
         <v>36643</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="29">
+        <f t="shared" si="0"/>
+        <v>2.9725773794511291E-3</v>
+      </c>
+      <c r="D14" s="11">
         <v>86537</v>
       </c>
-      <c r="D14" s="11">
+      <c r="E14" s="29">
+        <f t="shared" si="0"/>
+        <v>5.9440876463921419E-3</v>
+      </c>
+      <c r="F14" s="11">
         <v>42125</v>
       </c>
-      <c r="E14" s="11">
+      <c r="G14" s="29">
+        <f t="shared" ref="G14:I14" si="24">F14/F$2</f>
+        <v>3.0890472029145061E-3</v>
+      </c>
+      <c r="H14" s="11">
         <v>38518</v>
       </c>
-      <c r="F14" s="11">
+      <c r="I14" s="29">
+        <f t="shared" si="24"/>
+        <v>2.622712301779009E-3</v>
+      </c>
+      <c r="J14" s="11">
         <v>60123</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K14" s="29">
+        <f t="shared" ref="K14:L14" si="25">J14/J$2</f>
+        <v>3.328698376122487E-3</v>
+      </c>
+      <c r="L14" s="29">
+        <f t="shared" si="3"/>
+        <v>1.6407772289386786</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="11">
         <v>783477</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="29">
+        <f t="shared" si="0"/>
+        <v>6.3557732923620672E-2</v>
+      </c>
+      <c r="D15" s="11">
         <v>1073855</v>
       </c>
-      <c r="D15" s="11">
+      <c r="E15" s="29">
+        <f t="shared" si="0"/>
+        <v>7.376137651543771E-2</v>
+      </c>
+      <c r="F15" s="11">
         <v>46468</v>
       </c>
-      <c r="E15" s="11">
+      <c r="G15" s="29">
+        <f t="shared" ref="G15:I15" si="26">F15/F$2</f>
+        <v>3.407521553116469E-3</v>
+      </c>
+      <c r="H15" s="11">
         <v>75675</v>
       </c>
-      <c r="F15" s="11">
+      <c r="I15" s="29">
+        <f t="shared" si="26"/>
+        <v>5.1527533474512305E-3</v>
+      </c>
+      <c r="J15" s="11">
         <v>1918962</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K15" s="29">
+        <f t="shared" ref="K15:L15" si="27">J15/J$2</f>
+        <v>0.10624296347888096</v>
+      </c>
+      <c r="L15" s="29">
+        <f t="shared" si="3"/>
+        <v>2.4492895132850103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="11">
         <v>139986</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="29">
+        <f t="shared" si="0"/>
+        <v>1.1356035724145013E-2</v>
+      </c>
+      <c r="D16" s="11">
         <v>182685</v>
       </c>
-      <c r="D16" s="11">
+      <c r="E16" s="29">
+        <f t="shared" si="0"/>
+        <v>1.2548339458048563E-2</v>
+      </c>
+      <c r="F16" s="11">
         <v>300854</v>
       </c>
-      <c r="E16" s="11">
+      <c r="G16" s="29">
+        <f t="shared" ref="G16:I16" si="28">F16/F$2</f>
+        <v>2.2061773464347557E-2</v>
+      </c>
+      <c r="H16" s="11">
         <v>485757</v>
       </c>
-      <c r="F16" s="11">
+      <c r="I16" s="29">
+        <f t="shared" si="28"/>
+        <v>3.307546756257506E-2</v>
+      </c>
+      <c r="J16" s="11">
         <v>564393</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="K16" s="29">
+        <f t="shared" ref="K16:L16" si="29">J16/J$2</f>
+        <v>3.1247510313771747E-2</v>
+      </c>
+      <c r="L16" s="29">
+        <f t="shared" si="3"/>
+        <v>4.0317817496035318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="11">
         <v>86188</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="29">
+        <f t="shared" si="0"/>
+        <v>6.9917992298702044E-3</v>
+      </c>
+      <c r="D17" s="11">
         <v>87559</v>
       </c>
-      <c r="D17" s="11">
+      <c r="E17" s="29">
+        <f t="shared" si="0"/>
+        <v>6.0142871861798945E-3</v>
+      </c>
+      <c r="F17" s="11">
         <v>95627</v>
       </c>
-      <c r="E17" s="11">
+      <c r="G17" s="29">
+        <f t="shared" ref="G17:I17" si="30">F17/F$2</f>
+        <v>7.0123754747324742E-3</v>
+      </c>
+      <c r="H17" s="11">
         <v>118178</v>
       </c>
-      <c r="F17" s="11">
+      <c r="I17" s="29">
+        <f t="shared" si="30"/>
+        <v>8.0468065423864102E-3</v>
+      </c>
+      <c r="J17" s="11">
         <v>164431</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="K17" s="29">
+        <f t="shared" ref="K17:L17" si="31">J17/J$2</f>
+        <v>9.1036908119055369E-3</v>
+      </c>
+      <c r="L17" s="29">
+        <f t="shared" si="3"/>
+        <v>1.9078177936603704</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10" t="s">
         <v>76</v>
       </c>
       <c r="B18" s="11">
         <v>74256</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="29">
+        <f t="shared" si="0"/>
+        <v>6.0238437324597613E-3</v>
+      </c>
+      <c r="D18" s="11">
         <v>121193</v>
       </c>
-      <c r="D18" s="11">
+      <c r="E18" s="29">
+        <f t="shared" si="0"/>
+        <v>8.3245526668269398E-3</v>
+      </c>
+      <c r="F18" s="11">
         <v>166139</v>
       </c>
-      <c r="E18" s="11">
+      <c r="G18" s="29">
+        <f t="shared" ref="G18:I18" si="32">F18/F$2</f>
+        <v>1.2183055507300014E-2</v>
+      </c>
+      <c r="H18" s="11">
         <v>309018</v>
       </c>
-      <c r="F18" s="11">
+      <c r="I18" s="29">
+        <f t="shared" si="32"/>
+        <v>2.1041209566206601E-2</v>
+      </c>
+      <c r="J18" s="11">
         <v>237931</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="K18" s="29">
+        <f t="shared" ref="K18:L18" si="33">J18/J$2</f>
+        <v>1.3173004230148187E-2</v>
+      </c>
+      <c r="L18" s="29">
+        <f t="shared" si="3"/>
+        <v>3.2041989872872225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B19" s="7">
         <v>6889526</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="27">
+        <f>B19/B$19</f>
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
         <v>8761379</v>
       </c>
-      <c r="D19" s="7">
+      <c r="E19" s="27">
+        <f>D19/D$19</f>
+        <v>1</v>
+      </c>
+      <c r="F19" s="7">
         <v>8762305</v>
       </c>
-      <c r="E19" s="7">
+      <c r="G19" s="27">
+        <f>F19/F$19</f>
+        <v>1</v>
+      </c>
+      <c r="H19" s="7">
         <v>9577534</v>
       </c>
-      <c r="F19" s="7">
+      <c r="I19" s="27">
+        <f>H19/H$19</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="7">
         <v>12027430</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="K19" s="27">
+        <f>J19/J$19</f>
+        <v>1</v>
+      </c>
+      <c r="L19" s="27">
+        <f t="shared" si="3"/>
+        <v>1.7457558038100154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="9">
         <v>2924359</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="28">
+        <f t="shared" ref="C20:E33" si="34">B20/B$19</f>
+        <v>0.42446446968920648</v>
+      </c>
+      <c r="D20" s="9">
         <v>3249980</v>
       </c>
-      <c r="D20" s="9">
+      <c r="E20" s="28">
+        <f t="shared" si="34"/>
+        <v>0.37094388908412707</v>
+      </c>
+      <c r="F20" s="9">
         <v>2641253</v>
       </c>
-      <c r="E20" s="9">
+      <c r="G20" s="28">
+        <f t="shared" ref="G20:I20" si="35">F20/F$19</f>
+        <v>0.3014335839713409</v>
+      </c>
+      <c r="H20" s="9">
         <v>2806114</v>
       </c>
-      <c r="F20" s="9">
+      <c r="I20" s="28">
+        <f t="shared" si="35"/>
+        <v>0.29298919742806445</v>
+      </c>
+      <c r="J20" s="9">
         <v>3615810</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="K20" s="28">
+        <f t="shared" ref="K20:L20" si="36">J20/J$19</f>
+        <v>0.30063030921817879</v>
+      </c>
+      <c r="L20" s="28">
+        <f t="shared" si="3"/>
+        <v>1.2364453201539209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="11">
         <v>110068</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="29">
+        <f t="shared" si="34"/>
+        <v>1.5976135368383833E-2</v>
+      </c>
+      <c r="D21" s="11">
         <v>116891</v>
       </c>
-      <c r="D21" s="11">
+      <c r="E21" s="29">
+        <f t="shared" si="34"/>
+        <v>1.3341621221956042E-2</v>
+      </c>
+      <c r="F21" s="11">
         <v>140279</v>
       </c>
-      <c r="E21" s="11">
+      <c r="G21" s="29">
+        <f t="shared" ref="G21:I21" si="37">F21/F$19</f>
+        <v>1.6009371963199182E-2</v>
+      </c>
+      <c r="H21" s="11">
         <v>139919</v>
       </c>
-      <c r="F21" s="11">
+      <c r="I21" s="29">
+        <f t="shared" si="37"/>
+        <v>1.460908413376554E-2</v>
+      </c>
+      <c r="J21" s="11">
         <v>142155</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="K21" s="29">
+        <f t="shared" ref="K21:L21" si="38">J21/J$19</f>
+        <v>1.1819233202770667E-2</v>
+      </c>
+      <c r="L21" s="29">
+        <f t="shared" si="3"/>
+        <v>1.2915197877675619</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="11">
         <v>315109</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="29">
+        <f t="shared" si="34"/>
+        <v>4.5737399060544949E-2</v>
+      </c>
+      <c r="D22" s="11">
         <v>304983</v>
       </c>
-      <c r="D22" s="11">
+      <c r="E22" s="29">
+        <f t="shared" si="34"/>
+        <v>3.4809931176359339E-2</v>
+      </c>
+      <c r="F22" s="11">
         <v>379989</v>
       </c>
-      <c r="E22" s="11">
+      <c r="G22" s="29">
+        <f t="shared" ref="G22:I22" si="39">F22/F$19</f>
+        <v>4.3366328836989813E-2</v>
+      </c>
+      <c r="H22" s="11">
         <v>303645</v>
       </c>
-      <c r="F22" s="11">
+      <c r="I22" s="29">
+        <f t="shared" si="39"/>
+        <v>3.1703881186952713E-2</v>
+      </c>
+      <c r="J22" s="11">
         <v>467929</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="K22" s="29">
+        <f t="shared" ref="K22:L22" si="40">J22/J$19</f>
+        <v>3.8905152638593614E-2</v>
+      </c>
+      <c r="L22" s="29">
+        <f t="shared" si="3"/>
+        <v>1.4849750403828517</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="11">
         <v>57318</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="29">
+        <f t="shared" si="34"/>
+        <v>8.3195854112459982E-3</v>
+      </c>
+      <c r="D23" s="11">
         <v>61504</v>
       </c>
-      <c r="D23" s="11">
+      <c r="E23" s="29">
+        <f t="shared" si="34"/>
+        <v>7.0198994929907719E-3</v>
+      </c>
+      <c r="F23" s="11">
         <v>73149</v>
       </c>
-      <c r="E23" s="11">
+      <c r="G23" s="29">
+        <f t="shared" ref="G23:I23" si="41">F23/F$19</f>
+        <v>8.3481458360556947E-3</v>
+      </c>
+      <c r="H23" s="11">
         <v>76580</v>
       </c>
-      <c r="F23" s="11">
+      <c r="I23" s="29">
+        <f t="shared" si="41"/>
+        <v>7.9957951597979179E-3</v>
+      </c>
+      <c r="J23" s="11">
         <v>90477</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="K23" s="29">
+        <f t="shared" ref="K23:L23" si="42">J23/J$19</f>
+        <v>7.5225546937292501E-3</v>
+      </c>
+      <c r="L23" s="29">
+        <f t="shared" si="3"/>
+        <v>1.578509368784675</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10" t="s">
         <v>77</v>
       </c>
       <c r="B24" s="11">
         <v>600865</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="29">
+        <f t="shared" si="34"/>
+        <v>8.7214272796125591E-2</v>
+      </c>
+      <c r="D24" s="11">
         <v>804443</v>
       </c>
-      <c r="D24" s="11">
+      <c r="E24" s="29">
+        <f t="shared" si="34"/>
+        <v>9.1816938863162972E-2</v>
+      </c>
+      <c r="F24" s="11">
         <v>349089</v>
       </c>
-      <c r="E24" s="11">
+      <c r="G24" s="29">
+        <f t="shared" ref="G24:I24" si="43">F24/F$19</f>
+        <v>3.9839859489027143E-2</v>
+      </c>
+      <c r="H24" s="11">
         <v>95757</v>
       </c>
-      <c r="F24" s="11">
+      <c r="I24" s="29">
+        <f t="shared" si="43"/>
+        <v>9.9980851020732477E-3</v>
+      </c>
+      <c r="J24" s="11">
         <v>318251</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="K24" s="29">
+        <f t="shared" ref="K24:L24" si="44">J24/J$19</f>
+        <v>2.6460432527979794E-2</v>
+      </c>
+      <c r="L24" s="29">
+        <f t="shared" si="3"/>
+        <v>0.52965474773867671</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10" t="s">
         <v>78</v>
       </c>
       <c r="B25" s="11">
         <v>336185</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="29">
+        <f t="shared" si="34"/>
+        <v>4.8796535494604415E-2</v>
+      </c>
+      <c r="D25" s="11">
         <v>37381</v>
       </c>
-      <c r="D25" s="11">
+      <c r="E25" s="29">
+        <f t="shared" si="34"/>
+        <v>4.2665657997445379E-3</v>
+      </c>
+      <c r="F25" s="11">
         <v>66438</v>
       </c>
-      <c r="E25" s="11">
+      <c r="G25" s="29">
+        <f t="shared" ref="G25:I25" si="45">F25/F$19</f>
+        <v>7.5822514737845809E-3</v>
+      </c>
+      <c r="H25" s="11">
         <v>575854</v>
       </c>
-      <c r="F25" s="11">
+      <c r="I25" s="29">
+        <f t="shared" si="45"/>
+        <v>6.0125497857799304E-2</v>
+      </c>
+      <c r="J25" s="11">
         <v>369269</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="K25" s="29">
+        <f t="shared" ref="K25:L25" si="46">J25/J$19</f>
+        <v>3.0702236471133067E-2</v>
+      </c>
+      <c r="L25" s="29">
+        <f t="shared" si="3"/>
+        <v>1.0984101015809749</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
         <v>79</v>
       </c>
       <c r="B26" s="11">
         <v>40331</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="29">
+        <f t="shared" si="34"/>
+        <v>5.8539586032478868E-3</v>
+      </c>
+      <c r="D26" s="11">
         <v>49025</v>
       </c>
-      <c r="D26" s="11">
+      <c r="E26" s="29">
+        <f t="shared" si="34"/>
+        <v>5.5955803304479808E-3</v>
+      </c>
+      <c r="F26" s="11">
         <v>42564</v>
       </c>
-      <c r="E26" s="11">
+      <c r="G26" s="29">
+        <f t="shared" ref="G26:I26" si="47">F26/F$19</f>
+        <v>4.8576259329023586E-3</v>
+      </c>
+      <c r="H26" s="11">
         <v>32462</v>
       </c>
-      <c r="F26" s="11">
+      <c r="I26" s="29">
+        <f t="shared" si="47"/>
+        <v>3.3893902125536699E-3</v>
+      </c>
+      <c r="J26" s="11">
         <v>41647</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="K26" s="29">
+        <f t="shared" ref="K26:L26" si="48">J26/J$19</f>
+        <v>3.4626682508233264E-3</v>
+      </c>
+      <c r="L26" s="29">
+        <f t="shared" si="3"/>
+        <v>1.0326299868587439</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10" t="s">
         <v>80</v>
       </c>
       <c r="B27" s="11">
         <v>1464483</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="29">
+        <f t="shared" si="34"/>
+        <v>0.21256658295505379</v>
+      </c>
+      <c r="D27" s="11">
         <v>1875753</v>
       </c>
-      <c r="D27" s="11">
+      <c r="E27" s="29">
+        <f t="shared" si="34"/>
+        <v>0.2140933521994654</v>
+      </c>
+      <c r="F27" s="11">
         <v>1589745</v>
       </c>
-      <c r="E27" s="11">
+      <c r="G27" s="29">
+        <f t="shared" ref="G27:I27" si="49">F27/F$19</f>
+        <v>0.18143000043938209</v>
+      </c>
+      <c r="H27" s="11">
         <v>1581897</v>
       </c>
-      <c r="F27" s="11">
+      <c r="I27" s="29">
+        <f t="shared" si="49"/>
+        <v>0.16516746377512206</v>
+      </c>
+      <c r="J27" s="11">
         <v>2186082</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="K27" s="29">
+        <f t="shared" ref="K27:L27" si="50">J27/J$19</f>
+        <v>0.18175803143314906</v>
+      </c>
+      <c r="L27" s="29">
+        <f t="shared" si="3"/>
+        <v>1.4927329303242167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B28" s="9">
         <v>3965167</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="28">
+        <f t="shared" si="34"/>
+        <v>0.57553553031079352</v>
+      </c>
+      <c r="D28" s="9">
         <v>5511399</v>
       </c>
-      <c r="D28" s="9">
+      <c r="E28" s="28">
+        <f t="shared" si="34"/>
+        <v>0.62905611091587299</v>
+      </c>
+      <c r="F28" s="9">
         <v>6121052</v>
       </c>
-      <c r="E28" s="9">
+      <c r="G28" s="28">
+        <f t="shared" ref="G28:I28" si="51">F28/F$19</f>
+        <v>0.6985664160286591</v>
+      </c>
+      <c r="H28" s="9">
         <v>6771420</v>
       </c>
-      <c r="F28" s="9">
+      <c r="I28" s="28">
+        <f t="shared" si="51"/>
+        <v>0.70701080257193549</v>
+      </c>
+      <c r="J28" s="9">
         <v>8411620</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="K28" s="28">
+        <f t="shared" ref="K28:L28" si="52">J28/J$19</f>
+        <v>0.69936969078182121</v>
+      </c>
+      <c r="L28" s="28">
+        <f t="shared" si="3"/>
+        <v>2.1213784942727507</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10" t="s">
         <v>81</v>
       </c>
       <c r="B29" s="11">
         <v>1376590</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="29">
+        <f t="shared" si="34"/>
+        <v>0.19980910152599757</v>
+      </c>
+      <c r="D29" s="11">
         <v>1187851</v>
       </c>
-      <c r="D29" s="11">
+      <c r="E29" s="29">
+        <f t="shared" si="34"/>
+        <v>0.13557808650898448</v>
+      </c>
+      <c r="F29" s="11">
         <v>592623</v>
       </c>
-      <c r="E29" s="11">
+      <c r="G29" s="29">
+        <f t="shared" ref="G29:I29" si="53">F29/F$19</f>
+        <v>6.763323121028085E-2</v>
+      </c>
+      <c r="H29" s="11">
         <v>876608</v>
       </c>
-      <c r="F29" s="11">
+      <c r="I29" s="29">
+        <f t="shared" si="53"/>
+        <v>9.1527526814313587E-2</v>
+      </c>
+      <c r="J29" s="11">
         <v>1960044</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="K29" s="29">
+        <f t="shared" ref="K29:L29" si="54">J29/J$19</f>
+        <v>0.16296449033584065</v>
+      </c>
+      <c r="L29" s="29">
+        <f t="shared" si="3"/>
+        <v>1.4238400685752475</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10" t="s">
         <v>82</v>
       </c>
       <c r="B30" s="11">
         <v>0</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="29">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="11">
         <v>1442670</v>
       </c>
-      <c r="D30" s="11">
+      <c r="E30" s="29">
+        <f t="shared" si="34"/>
+        <v>0.16466243498882996</v>
+      </c>
+      <c r="F30" s="11">
         <v>1854868</v>
       </c>
-      <c r="E30" s="11">
+      <c r="G30" s="29">
+        <f t="shared" ref="G30:I30" si="55">F30/F$19</f>
+        <v>0.21168722157012337</v>
+      </c>
+      <c r="H30" s="11">
         <v>1653939</v>
       </c>
-      <c r="F30" s="11">
+      <c r="I30" s="29">
+        <f t="shared" si="55"/>
+        <v>0.17268944177071049</v>
+      </c>
+      <c r="J30" s="11">
         <v>2003967</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="K30" s="29">
+        <f t="shared" ref="K30:L30" si="56">J30/J$19</f>
+        <v>0.16661639269569642</v>
+      </c>
+      <c r="L30" s="29" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="10" t="s">
         <v>83</v>
       </c>
       <c r="B31" s="11">
         <v>2351052</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="29">
+        <f t="shared" si="34"/>
+        <v>0.34125018179770278</v>
+      </c>
+      <c r="D31" s="11">
         <v>2647968</v>
       </c>
-      <c r="D31" s="11">
+      <c r="E31" s="29">
+        <f t="shared" si="34"/>
+        <v>0.30223187468548046</v>
+      </c>
+      <c r="F31" s="11">
         <v>3452521</v>
       </c>
-      <c r="E31" s="11">
+      <c r="G31" s="29">
+        <f t="shared" ref="G31:I31" si="57">F31/F$19</f>
+        <v>0.39401972426205206</v>
+      </c>
+      <c r="H31" s="11">
         <v>3985410</v>
       </c>
-      <c r="F31" s="11">
+      <c r="I31" s="29">
+        <f t="shared" si="57"/>
+        <v>0.41612068409258585</v>
+      </c>
+      <c r="J31" s="11">
         <v>4154479</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="K31" s="29">
+        <f t="shared" ref="K31:L31" si="58">J31/J$19</f>
+        <v>0.34541701760060128</v>
+      </c>
+      <c r="L31" s="29">
+        <f t="shared" si="3"/>
+        <v>1.767072357395753</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B32" s="11">
         <v>40126</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="29">
+        <f t="shared" si="34"/>
+        <v>5.8242032906182517E-3</v>
+      </c>
+      <c r="D32" s="11">
         <v>41551</v>
       </c>
-      <c r="D32" s="11">
+      <c r="E32" s="29">
+        <f t="shared" si="34"/>
+        <v>4.7425182725230807E-3</v>
+      </c>
+      <c r="F32" s="11">
         <v>34128</v>
       </c>
-      <c r="E32" s="11">
+      <c r="G32" s="29">
+        <f t="shared" ref="G32:I32" si="59">F32/F$19</f>
+        <v>3.8948655633420657E-3</v>
+      </c>
+      <c r="H32" s="11">
         <v>46516</v>
       </c>
-      <c r="F32" s="11">
+      <c r="I32" s="29">
+        <f t="shared" si="59"/>
+        <v>4.8567825496625746E-3</v>
+      </c>
+      <c r="J32" s="11">
         <v>66734</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="K32" s="29">
+        <f t="shared" ref="K32:L32" si="60">J32/J$19</f>
+        <v>5.5484837575442139E-3</v>
+      </c>
+      <c r="L32" s="29">
+        <f t="shared" si="3"/>
+        <v>1.6631111997208792</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10" t="s">
         <v>84</v>
       </c>
       <c r="B33" s="11">
         <v>197399</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="29">
+        <f t="shared" si="34"/>
+        <v>2.8652043696474911E-2</v>
+      </c>
+      <c r="D33" s="11">
         <v>191359</v>
       </c>
-      <c r="D33" s="11">
+      <c r="E33" s="29">
+        <f t="shared" si="34"/>
+        <v>2.1841196460054977E-2</v>
+      </c>
+      <c r="F33" s="11">
         <v>186912</v>
       </c>
-      <c r="E33" s="11">
+      <c r="G33" s="29">
+        <f t="shared" ref="G33:I33" si="61">F33/F$19</f>
+        <v>2.1331373422860764E-2</v>
+      </c>
+      <c r="H33" s="11">
         <v>208947</v>
       </c>
-      <c r="F33" s="11">
+      <c r="I33" s="29">
+        <f t="shared" si="61"/>
+        <v>2.1816367344663041E-2</v>
+      </c>
+      <c r="J33" s="11">
         <v>226396</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="K33" s="29">
+        <f t="shared" ref="K33:L33" si="62">J33/J$19</f>
+        <v>1.8823306392138636E-2</v>
+      </c>
+      <c r="L33" s="29">
+        <f t="shared" si="3"/>
+        <v>1.146895374343335</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B34" s="7">
         <v>5437487</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="27">
+        <f>B34/B$34</f>
+        <v>1</v>
+      </c>
+      <c r="D34" s="7">
         <v>5797121</v>
       </c>
-      <c r="D34" s="7">
+      <c r="E34" s="27">
+        <f>D34/D$34</f>
+        <v>1</v>
+      </c>
+      <c r="F34" s="7">
         <v>4874586</v>
       </c>
-      <c r="E34" s="7">
+      <c r="G34" s="27">
+        <f>F34/F$34</f>
+        <v>1</v>
+      </c>
+      <c r="H34" s="7">
         <v>5108789</v>
       </c>
-      <c r="F34" s="7">
+      <c r="I34" s="27">
+        <f>H34/H$34</f>
+        <v>1</v>
+      </c>
+      <c r="J34" s="7">
         <v>6034585</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="K34" s="27">
+        <f>J34/J$34</f>
+        <v>1</v>
+      </c>
+      <c r="L34" s="27">
+        <f t="shared" si="3"/>
+        <v>1.1098113889743553</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="11">
         <v>253758</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="29">
+        <f t="shared" ref="C35:E39" si="63">B35/B$34</f>
+        <v>4.666824950569997E-2</v>
+      </c>
+      <c r="D35" s="11">
         <v>255359</v>
       </c>
-      <c r="D35" s="11">
+      <c r="E35" s="29">
+        <f t="shared" si="63"/>
+        <v>4.4049278943806759E-2</v>
+      </c>
+      <c r="F35" s="11">
         <v>244141</v>
       </c>
-      <c r="E35" s="11">
+      <c r="G35" s="29">
+        <f t="shared" ref="G35:I35" si="64">F35/F$34</f>
+        <v>5.0084458454523112E-2</v>
+      </c>
+      <c r="H35" s="11">
         <v>267019</v>
       </c>
-      <c r="F35" s="11">
+      <c r="I35" s="29">
+        <f t="shared" si="64"/>
+        <v>5.2266593903173529E-2</v>
+      </c>
+      <c r="J35" s="11">
         <v>361254</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="K35" s="29">
+        <f t="shared" ref="K35:L35" si="65">J35/J$34</f>
+        <v>5.9863934305341628E-2</v>
+      </c>
+      <c r="L35" s="29">
+        <f t="shared" si="3"/>
+        <v>1.4236162012626203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B36" s="11">
         <v>4509521</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="29">
+        <f t="shared" si="63"/>
+        <v>0.82933917819021907</v>
+      </c>
+      <c r="D36" s="11">
         <v>4769945</v>
       </c>
-      <c r="D36" s="11">
+      <c r="E36" s="29">
+        <f t="shared" si="63"/>
+        <v>0.82281273756404261</v>
+      </c>
+      <c r="F36" s="11">
         <v>4079770</v>
       </c>
-      <c r="E36" s="11">
+      <c r="G36" s="29">
+        <f t="shared" ref="G36:I36" si="66">F36/F$34</f>
+        <v>0.83694697354811265</v>
+      </c>
+      <c r="H36" s="11">
         <v>4282130</v>
       </c>
-      <c r="F36" s="11">
+      <c r="I36" s="29">
+        <f t="shared" si="66"/>
+        <v>0.83818885454067493</v>
+      </c>
+      <c r="J36" s="11">
         <v>4609424</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="K36" s="29">
+        <f t="shared" ref="K36:L36" si="67">J36/J$34</f>
+        <v>0.76383446417607836</v>
+      </c>
+      <c r="L36" s="29">
+        <f t="shared" si="3"/>
+        <v>1.0221537941612868</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B37" s="11">
         <v>28977</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="29">
+        <f t="shared" si="63"/>
+        <v>5.3291161891513492E-3</v>
+      </c>
+      <c r="D37" s="11">
         <v>35464</v>
       </c>
-      <c r="D37" s="11">
+      <c r="E37" s="29">
+        <f t="shared" si="63"/>
+        <v>6.1175193686659295E-3</v>
+      </c>
+      <c r="F37" s="11">
         <v>42187</v>
       </c>
-      <c r="E37" s="11">
+      <c r="G37" s="29">
+        <f t="shared" ref="G37:I37" si="68">F37/F$34</f>
+        <v>8.6544785546916192E-3</v>
+      </c>
+      <c r="H37" s="11">
         <v>49555</v>
       </c>
-      <c r="F37" s="11">
+      <c r="I37" s="29">
+        <f t="shared" si="68"/>
+        <v>9.699950418778306E-3</v>
+      </c>
+      <c r="J37" s="11">
         <v>59502</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="K37" s="29">
+        <f t="shared" ref="K37:L37" si="69">J37/J$34</f>
+        <v>9.8601643692151162E-3</v>
+      </c>
+      <c r="L37" s="29">
+        <f t="shared" si="3"/>
+        <v>2.0534216792628635</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B38" s="11">
         <v>645231</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="29">
+        <f t="shared" si="63"/>
+        <v>0.11866345611492957</v>
+      </c>
+      <c r="D38" s="11">
         <v>736353</v>
       </c>
-      <c r="D38" s="11">
+      <c r="E38" s="29">
+        <f t="shared" si="63"/>
+        <v>0.12702046412348475</v>
+      </c>
+      <c r="F38" s="11">
         <v>508488</v>
       </c>
-      <c r="E38" s="11">
+      <c r="G38" s="29">
+        <f t="shared" ref="G38:I38" si="70">F38/F$34</f>
+        <v>0.10431408944267268</v>
+      </c>
+      <c r="H38" s="11">
         <v>510085</v>
       </c>
-      <c r="F38" s="11">
+      <c r="I38" s="29">
+        <f t="shared" si="70"/>
+        <v>9.9844601137373257E-2</v>
+      </c>
+      <c r="J38" s="11">
         <v>920796</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="K38" s="29">
+        <f t="shared" ref="K38:L38" si="71">J38/J$34</f>
+        <v>0.15258646617787305</v>
+      </c>
+      <c r="L38" s="29">
+        <f t="shared" si="3"/>
+        <v>1.4270796040487825</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B39" s="11">
         <v>0</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="29">
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="D39" s="11">
         <v>0</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="29">
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="F39" s="11">
+        <v>0</v>
+      </c>
+      <c r="G39" s="29">
+        <f t="shared" ref="G39:I39" si="72">F39/F$34</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0</v>
+      </c>
+      <c r="I39" s="29">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="11">
         <v>83609</v>
+      </c>
+      <c r="K39" s="29">
+        <f t="shared" ref="K39:L39" si="73">J39/J$34</f>
+        <v>1.3854970971491826E-2</v>
+      </c>
+      <c r="L39" s="29" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -2338,10 +3315,623 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3FD37F-98C5-40E3-B1ED-6BEB19E70B1C}">
+  <dimension ref="A1:T15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="34.47265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="13.15625" customWidth="1"/>
+    <col min="11" max="20" width="8.83984375" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="5">
+        <v>2017</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="5">
+        <v>2018</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="5">
+        <v>2019</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="5">
+        <v>2020</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="11">
+        <v>4759888</v>
+      </c>
+      <c r="C2" s="26">
+        <f>B2/B$2</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="11">
+        <v>5418995</v>
+      </c>
+      <c r="E2" s="26">
+        <f>D2/D$2</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="11">
+        <v>6055722</v>
+      </c>
+      <c r="G2" s="26">
+        <f>F2/F$2</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="11">
+        <v>6646359</v>
+      </c>
+      <c r="I2" s="26">
+        <f>H2/H$2</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="29">
+        <f>H2/B2</f>
+        <v>1.3963267623103737</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="11">
+        <v>3147749</v>
+      </c>
+      <c r="C3" s="26">
+        <f t="shared" ref="C3:E15" si="0">B3/B$2</f>
+        <v>0.66130736689602776</v>
+      </c>
+      <c r="D3" s="11">
+        <v>3620489</v>
+      </c>
+      <c r="E3" s="26">
+        <f t="shared" si="0"/>
+        <v>0.66811078437976046</v>
+      </c>
+      <c r="F3" s="11">
+        <v>4213455</v>
+      </c>
+      <c r="G3" s="26">
+        <f t="shared" ref="G3:I3" si="1">F3/F$2</f>
+        <v>0.69578078386028952</v>
+      </c>
+      <c r="H3" s="11">
+        <v>4772021</v>
+      </c>
+      <c r="I3" s="26">
+        <f t="shared" si="1"/>
+        <v>0.71799025601837041</v>
+      </c>
+      <c r="J3" s="29">
+        <f t="shared" ref="J3:J15" si="2">H3/B3</f>
+        <v>1.5160106476088151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1612139</v>
+      </c>
+      <c r="C4" s="25">
+        <f t="shared" si="0"/>
+        <v>0.33869263310397218</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1798506</v>
+      </c>
+      <c r="E4" s="25">
+        <f t="shared" si="0"/>
+        <v>0.33188921562023954</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1842267</v>
+      </c>
+      <c r="G4" s="25">
+        <f t="shared" ref="G4:I4" si="3">F4/F$2</f>
+        <v>0.30421921613971054</v>
+      </c>
+      <c r="H4" s="9">
+        <v>1874338</v>
+      </c>
+      <c r="I4" s="25">
+        <f t="shared" si="3"/>
+        <v>0.28200974398162965</v>
+      </c>
+      <c r="J4" s="28">
+        <f t="shared" si="2"/>
+        <v>1.1626404422943679</v>
+      </c>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="11">
+        <v>550298</v>
+      </c>
+      <c r="C5" s="26">
+        <f t="shared" si="0"/>
+        <v>0.11561154380103061</v>
+      </c>
+      <c r="D5" s="11">
+        <v>585959</v>
+      </c>
+      <c r="E5" s="26">
+        <f t="shared" si="0"/>
+        <v>0.10813056664566031</v>
+      </c>
+      <c r="F5" s="11">
+        <v>592252</v>
+      </c>
+      <c r="G5" s="26">
+        <f t="shared" ref="G5:I5" si="4">F5/F$2</f>
+        <v>9.7800394403838226E-2</v>
+      </c>
+      <c r="H5" s="11">
+        <v>649261</v>
+      </c>
+      <c r="I5" s="26">
+        <f t="shared" si="4"/>
+        <v>9.768671839724577E-2</v>
+      </c>
+      <c r="J5" s="29">
+        <f t="shared" si="2"/>
+        <v>1.1798352892432826</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="11">
+        <v>319719</v>
+      </c>
+      <c r="C6" s="26">
+        <f t="shared" si="0"/>
+        <v>6.7169437600212448E-2</v>
+      </c>
+      <c r="D6" s="11">
+        <v>347374</v>
+      </c>
+      <c r="E6" s="26">
+        <f t="shared" si="0"/>
+        <v>6.4103030174414266E-2</v>
+      </c>
+      <c r="F6" s="11">
+        <v>351676</v>
+      </c>
+      <c r="G6" s="26">
+        <f t="shared" ref="G6:I6" si="5">F6/F$2</f>
+        <v>5.8073339562152951E-2</v>
+      </c>
+      <c r="H6" s="11">
+        <v>433410</v>
+      </c>
+      <c r="I6" s="26">
+        <f t="shared" si="5"/>
+        <v>6.5210139867557554E-2</v>
+      </c>
+      <c r="J6" s="29">
+        <f t="shared" si="2"/>
+        <v>1.3555966332936109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="11">
+        <v>72927</v>
+      </c>
+      <c r="C7" s="26">
+        <f t="shared" si="0"/>
+        <v>1.5321158817182254E-2</v>
+      </c>
+      <c r="D7" s="11">
+        <v>40421</v>
+      </c>
+      <c r="E7" s="26">
+        <f t="shared" si="0"/>
+        <v>7.4591321822588871E-3</v>
+      </c>
+      <c r="F7" s="11">
+        <v>46408</v>
+      </c>
+      <c r="G7" s="26">
+        <f t="shared" ref="G7:I7" si="6">F7/F$2</f>
+        <v>7.6634957813453124E-3</v>
+      </c>
+      <c r="H7" s="11">
+        <v>98083</v>
+      </c>
+      <c r="I7" s="26">
+        <f t="shared" si="6"/>
+        <v>1.4757403263952489E-2</v>
+      </c>
+      <c r="J7" s="29">
+        <f t="shared" si="2"/>
+        <v>1.3449476874134407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="11">
+        <v>115487</v>
+      </c>
+      <c r="C8" s="26">
+        <f t="shared" si="0"/>
+        <v>2.4262545673343575E-2</v>
+      </c>
+      <c r="D8" s="11">
+        <v>135803</v>
+      </c>
+      <c r="E8" s="26">
+        <f t="shared" si="0"/>
+        <v>2.5060550895507377E-2</v>
+      </c>
+      <c r="F8" s="11">
+        <v>132009</v>
+      </c>
+      <c r="G8" s="26">
+        <f t="shared" ref="G8:I8" si="7">F8/F$2</f>
+        <v>2.1799052202198185E-2</v>
+      </c>
+      <c r="H8" s="11">
+        <v>129274</v>
+      </c>
+      <c r="I8" s="26">
+        <f t="shared" si="7"/>
+        <v>1.9450348679630455E-2</v>
+      </c>
+      <c r="J8" s="29">
+        <f t="shared" si="2"/>
+        <v>1.1193814022357496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="11">
+        <v>-33049</v>
+      </c>
+      <c r="C9" s="26">
+        <f t="shared" si="0"/>
+        <v>-6.9432305970224513E-3</v>
+      </c>
+      <c r="D9" s="11">
+        <v>-27855</v>
+      </c>
+      <c r="E9" s="26">
+        <f t="shared" si="0"/>
+        <v>-5.1402520209005544E-3</v>
+      </c>
+      <c r="F9" s="11">
+        <v>-72062</v>
+      </c>
+      <c r="G9" s="26">
+        <f t="shared" ref="G9:I9" si="8">F9/F$2</f>
+        <v>-1.1899819707707851E-2</v>
+      </c>
+      <c r="H9" s="11">
+        <v>-46741</v>
+      </c>
+      <c r="I9" s="26">
+        <f t="shared" si="8"/>
+        <v>-7.032572270020322E-3</v>
+      </c>
+      <c r="J9" s="29">
+        <f t="shared" si="2"/>
+        <v>1.4142939271990076</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="9">
+        <v>666513</v>
+      </c>
+      <c r="C10" s="25">
+        <f t="shared" si="0"/>
+        <v>0.14002703424954538</v>
+      </c>
+      <c r="D10" s="9">
+        <v>741936</v>
+      </c>
+      <c r="E10" s="25">
+        <f t="shared" si="0"/>
+        <v>0.13691394806601592</v>
+      </c>
+      <c r="F10" s="9">
+        <v>740676</v>
+      </c>
+      <c r="G10" s="25">
+        <f t="shared" ref="G10:I10" si="9">F10/F$2</f>
+        <v>0.12231010604515861</v>
+      </c>
+      <c r="H10" s="9">
+        <v>713735</v>
+      </c>
+      <c r="I10" s="25">
+        <f t="shared" si="9"/>
+        <v>0.10738736803112801</v>
+      </c>
+      <c r="J10" s="28">
+        <f t="shared" si="2"/>
+        <v>1.0708493307707427</v>
+      </c>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="11">
+        <v>283030</v>
+      </c>
+      <c r="C11" s="26">
+        <f t="shared" si="0"/>
+        <v>5.946148312733409E-2</v>
+      </c>
+      <c r="D11" s="11">
+        <v>239537</v>
+      </c>
+      <c r="E11" s="26">
+        <f t="shared" si="0"/>
+        <v>4.4203214802744792E-2</v>
+      </c>
+      <c r="F11" s="11">
+        <v>195363</v>
+      </c>
+      <c r="G11" s="26">
+        <f t="shared" ref="G11:I11" si="10">F11/F$2</f>
+        <v>3.2260893085911145E-2</v>
+      </c>
+      <c r="H11" s="11">
+        <v>155541</v>
+      </c>
+      <c r="I11" s="26">
+        <f t="shared" si="10"/>
+        <v>2.3402437334486447E-2</v>
+      </c>
+      <c r="J11" s="29">
+        <f t="shared" si="2"/>
+        <v>0.54955658410769181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="11">
+        <v>144348</v>
+      </c>
+      <c r="C12" s="26">
+        <f t="shared" si="0"/>
+        <v>3.032592363517797E-2</v>
+      </c>
+      <c r="D12" s="11">
+        <v>102907</v>
+      </c>
+      <c r="E12" s="26">
+        <f t="shared" si="0"/>
+        <v>1.899005258355101E-2</v>
+      </c>
+      <c r="F12" s="11">
+        <v>58119</v>
+      </c>
+      <c r="G12" s="26">
+        <f t="shared" ref="G12:I12" si="11">F12/F$2</f>
+        <v>9.5973692319429454E-3</v>
+      </c>
+      <c r="H12" s="11">
+        <v>108529</v>
+      </c>
+      <c r="I12" s="26">
+        <f t="shared" si="11"/>
+        <v>1.6329090860123567E-2</v>
+      </c>
+      <c r="J12" s="29">
+        <f t="shared" si="2"/>
+        <v>0.75185662426912736</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="9">
+        <v>805195</v>
+      </c>
+      <c r="C13" s="25">
+        <f t="shared" si="0"/>
+        <v>0.16916259374170148</v>
+      </c>
+      <c r="D13" s="9">
+        <v>878566</v>
+      </c>
+      <c r="E13" s="25">
+        <f t="shared" si="0"/>
+        <v>0.16212711028520971</v>
+      </c>
+      <c r="F13" s="9">
+        <v>877920</v>
+      </c>
+      <c r="G13" s="25">
+        <f t="shared" ref="G13:I13" si="12">F13/F$2</f>
+        <v>0.14497362989912682</v>
+      </c>
+      <c r="H13" s="9">
+        <v>760747</v>
+      </c>
+      <c r="I13" s="25">
+        <f t="shared" si="12"/>
+        <v>0.1144607145054909</v>
+      </c>
+      <c r="J13" s="28">
+        <f t="shared" si="2"/>
+        <v>0.94479846496811326</v>
+      </c>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="11">
+        <v>105171</v>
+      </c>
+      <c r="C14" s="26">
+        <f t="shared" si="0"/>
+        <v>2.2095267787813493E-2</v>
+      </c>
+      <c r="D14" s="11">
+        <v>120429</v>
+      </c>
+      <c r="E14" s="26">
+        <f t="shared" si="0"/>
+        <v>2.2223493470652767E-2</v>
+      </c>
+      <c r="F14" s="11">
+        <v>130044</v>
+      </c>
+      <c r="G14" s="26">
+        <f t="shared" ref="G14:I14" si="13">F14/F$2</f>
+        <v>2.1474565708267321E-2</v>
+      </c>
+      <c r="H14" s="11">
+        <v>139755</v>
+      </c>
+      <c r="I14" s="26">
+        <f t="shared" si="13"/>
+        <v>2.1027302316952785E-2</v>
+      </c>
+      <c r="J14" s="29">
+        <f t="shared" si="2"/>
+        <v>1.3288358958267963</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="7">
+        <v>700024</v>
+      </c>
+      <c r="C15" s="24">
+        <f t="shared" si="0"/>
+        <v>0.147067325953888</v>
+      </c>
+      <c r="D15" s="7">
+        <v>758137</v>
+      </c>
+      <c r="E15" s="24">
+        <f t="shared" si="0"/>
+        <v>0.13990361681455693</v>
+      </c>
+      <c r="F15" s="7">
+        <v>747876</v>
+      </c>
+      <c r="G15" s="24">
+        <f t="shared" ref="G15:I15" si="14">F15/F$2</f>
+        <v>0.12349906419085949</v>
+      </c>
+      <c r="H15" s="7">
+        <v>620992</v>
+      </c>
+      <c r="I15" s="24">
+        <f t="shared" si="14"/>
+        <v>9.3433412188538109E-2</v>
+      </c>
+      <c r="J15" s="27">
+        <f t="shared" si="2"/>
+        <v>0.88710101367953098</v>
+      </c>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2EDE1F-0CA5-454F-B36A-E70AF3985794}">
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2370,328 +3960,6 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="11">
-        <v>4759888</v>
-      </c>
-      <c r="C2" s="11">
-        <v>5418995</v>
-      </c>
-      <c r="D2" s="11">
-        <v>6055722</v>
-      </c>
-      <c r="E2" s="11">
-        <v>6646359</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="11">
-        <v>3147749</v>
-      </c>
-      <c r="C3" s="11">
-        <v>3620489</v>
-      </c>
-      <c r="D3" s="11">
-        <v>4213455</v>
-      </c>
-      <c r="E3" s="11">
-        <v>4772021</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="9">
-        <v>1612139</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1798506</v>
-      </c>
-      <c r="D4" s="9">
-        <v>1842267</v>
-      </c>
-      <c r="E4" s="9">
-        <v>1874338</v>
-      </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="11">
-        <v>550298</v>
-      </c>
-      <c r="C5" s="11">
-        <v>585959</v>
-      </c>
-      <c r="D5" s="11">
-        <v>592252</v>
-      </c>
-      <c r="E5" s="11">
-        <v>649261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="11">
-        <v>319719</v>
-      </c>
-      <c r="C6" s="11">
-        <v>347374</v>
-      </c>
-      <c r="D6" s="11">
-        <v>351676</v>
-      </c>
-      <c r="E6" s="11">
-        <v>433410</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="11">
-        <v>72927</v>
-      </c>
-      <c r="C7" s="11">
-        <v>40421</v>
-      </c>
-      <c r="D7" s="11">
-        <v>46408</v>
-      </c>
-      <c r="E7" s="11">
-        <v>98083</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="11">
-        <v>115487</v>
-      </c>
-      <c r="C8" s="11">
-        <v>135803</v>
-      </c>
-      <c r="D8" s="11">
-        <v>132009</v>
-      </c>
-      <c r="E8" s="11">
-        <v>129274</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="11">
-        <v>-33049</v>
-      </c>
-      <c r="C9" s="11">
-        <v>-27855</v>
-      </c>
-      <c r="D9" s="11">
-        <v>-72062</v>
-      </c>
-      <c r="E9" s="11">
-        <v>-46741</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="9">
-        <v>666513</v>
-      </c>
-      <c r="C10" s="9">
-        <v>741936</v>
-      </c>
-      <c r="D10" s="9">
-        <v>740676</v>
-      </c>
-      <c r="E10" s="9">
-        <v>713735</v>
-      </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="11">
-        <v>283030</v>
-      </c>
-      <c r="C11" s="11">
-        <v>239537</v>
-      </c>
-      <c r="D11" s="11">
-        <v>195363</v>
-      </c>
-      <c r="E11" s="11">
-        <v>155541</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="11">
-        <v>144348</v>
-      </c>
-      <c r="C12" s="11">
-        <v>102907</v>
-      </c>
-      <c r="D12" s="11">
-        <v>58119</v>
-      </c>
-      <c r="E12" s="11">
-        <v>108529</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="9">
-        <v>805195</v>
-      </c>
-      <c r="C13" s="9">
-        <v>878566</v>
-      </c>
-      <c r="D13" s="9">
-        <v>877920</v>
-      </c>
-      <c r="E13" s="9">
-        <v>760747</v>
-      </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="11">
-        <v>105171</v>
-      </c>
-      <c r="C14" s="11">
-        <v>120429</v>
-      </c>
-      <c r="D14" s="11">
-        <v>130044</v>
-      </c>
-      <c r="E14" s="11">
-        <v>139755</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="7">
-        <v>700024</v>
-      </c>
-      <c r="C15" s="7">
-        <v>758137</v>
-      </c>
-      <c r="D15" s="7">
-        <v>747876</v>
-      </c>
-      <c r="E15" s="7">
-        <v>620992</v>
-      </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2EDE1F-0CA5-454F-B36A-E70AF3985794}">
-  <dimension ref="A1:P15"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="34.47265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="11.83984375" customWidth="1"/>
-    <col min="6" max="16" width="8.83984375" style="21"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="5">
-        <v>2017</v>
-      </c>
-      <c r="C1" s="5">
-        <v>2018</v>
-      </c>
-      <c r="D1" s="5">
-        <v>2019</v>
-      </c>
-      <c r="E1" s="5">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="10" t="s">
         <v>87</v>
       </c>
       <c r="B2" s="23">
